--- a/data/nzd0142/nzd0142.xlsx
+++ b/data/nzd0142/nzd0142.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G298"/>
+  <dimension ref="A1:G305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8315,6 +8315,195 @@
       <c r="G298" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>360.0133333333333</v>
+      </c>
+      <c r="C299" t="n">
+        <v>377.297619047619</v>
+      </c>
+      <c r="D299" t="n">
+        <v>370.3881481481482</v>
+      </c>
+      <c r="E299" t="n">
+        <v>380.1963157894737</v>
+      </c>
+      <c r="F299" t="n">
+        <v>379.067619047619</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>367.9366666666667</v>
+      </c>
+      <c r="C300" t="n">
+        <v>367.7066666666667</v>
+      </c>
+      <c r="D300" t="n">
+        <v>369.0907407407408</v>
+      </c>
+      <c r="E300" t="n">
+        <v>374.718947368421</v>
+      </c>
+      <c r="F300" t="n">
+        <v>366.3466666666667</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>363.1166666666667</v>
+      </c>
+      <c r="C301" t="n">
+        <v>378.4952380952381</v>
+      </c>
+      <c r="D301" t="n">
+        <v>371.9474074074074</v>
+      </c>
+      <c r="E301" t="n">
+        <v>377.7536842105263</v>
+      </c>
+      <c r="F301" t="n">
+        <v>379.7252380952381</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>370.6133333333333</v>
+      </c>
+      <c r="C302" t="n">
+        <v>371.6833333333333</v>
+      </c>
+      <c r="D302" t="n">
+        <v>370.4981481481482</v>
+      </c>
+      <c r="E302" t="n">
+        <v>370.9147368421053</v>
+      </c>
+      <c r="F302" t="n">
+        <v>372.0433333333333</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>364.4966666666666</v>
+      </c>
+      <c r="C303" t="n">
+        <v>377.7652380952381</v>
+      </c>
+      <c r="D303" t="n">
+        <v>383.2585185185185</v>
+      </c>
+      <c r="E303" t="n">
+        <v>382.8647368421053</v>
+      </c>
+      <c r="F303" t="n">
+        <v>378.6252380952381</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>366.2766666666667</v>
+      </c>
+      <c r="C304" t="n">
+        <v>372.6838095238096</v>
+      </c>
+      <c r="D304" t="n">
+        <v>374.9407407407408</v>
+      </c>
+      <c r="E304" t="n">
+        <v>374.7247368421053</v>
+      </c>
+      <c r="F304" t="n">
+        <v>373.8338095238095</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>363.67</v>
+      </c>
+      <c r="C305" t="n">
+        <v>378.1785714285714</v>
+      </c>
+      <c r="D305" t="n">
+        <v>370.0644444444445</v>
+      </c>
+      <c r="E305" t="n">
+        <v>378.1773684210527</v>
+      </c>
+      <c r="F305" t="n">
+        <v>370.3385714285714</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -8329,7 +8518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B312"/>
+  <dimension ref="A1:B320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11457,6 +11646,86 @@
       </c>
       <c r="B312" t="n">
         <v>-0.4</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>-0.48</v>
       </c>
     </row>
   </sheetData>
@@ -11625,28 +11894,28 @@
         <v>0.06809999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1565571794867056</v>
+        <v>0.1595460082138809</v>
       </c>
       <c r="J2" t="n">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K2" t="n">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01791702552148633</v>
+        <v>0.01946933718720578</v>
       </c>
       <c r="M2" t="n">
-        <v>6.333883317357314</v>
+        <v>6.243446164680631</v>
       </c>
       <c r="N2" t="n">
-        <v>66.90730765054111</v>
+        <v>65.53010449692718</v>
       </c>
       <c r="O2" t="n">
-        <v>8.179688725773195</v>
+        <v>8.095066676496691</v>
       </c>
       <c r="P2" t="n">
-        <v>360.5990465637759</v>
+        <v>360.5689865329472</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -11702,28 +11971,28 @@
         <v>0.1228</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1726580780932587</v>
+        <v>0.203718096498954</v>
       </c>
       <c r="J3" t="n">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K3" t="n">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01927795822554512</v>
+        <v>0.02749395642786712</v>
       </c>
       <c r="M3" t="n">
-        <v>6.707580250966193</v>
+        <v>6.728210706267669</v>
       </c>
       <c r="N3" t="n">
-        <v>75.20212341895375</v>
+        <v>74.68666914630113</v>
       </c>
       <c r="O3" t="n">
-        <v>8.671915787123035</v>
+        <v>8.642144938977887</v>
       </c>
       <c r="P3" t="n">
-        <v>363.9930421161651</v>
+        <v>363.6796030962013</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -11779,28 +12048,28 @@
         <v>0.1665</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3176768717045956</v>
+        <v>0.3439266290225438</v>
       </c>
       <c r="J4" t="n">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K4" t="n">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05468250651102324</v>
+        <v>0.06555257119884172</v>
       </c>
       <c r="M4" t="n">
-        <v>7.195210124504768</v>
+        <v>7.158724865313541</v>
       </c>
       <c r="N4" t="n">
-        <v>88.00773310068625</v>
+        <v>87.13170144259774</v>
       </c>
       <c r="O4" t="n">
-        <v>9.381243686243645</v>
+        <v>9.334436321631733</v>
       </c>
       <c r="P4" t="n">
-        <v>359.1830953403419</v>
+        <v>358.919967211426</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -11856,28 +12125,28 @@
         <v>0.1094</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3597889254884925</v>
+        <v>0.4043765125219311</v>
       </c>
       <c r="J5" t="n">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K5" t="n">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05068518569936942</v>
+        <v>0.06502479792968574</v>
       </c>
       <c r="M5" t="n">
-        <v>8.393804046421106</v>
+        <v>8.418750654045425</v>
       </c>
       <c r="N5" t="n">
-        <v>119.6278826647994</v>
+        <v>119.0150470239273</v>
       </c>
       <c r="O5" t="n">
-        <v>10.93745320743359</v>
+        <v>10.90940177204632</v>
       </c>
       <c r="P5" t="n">
-        <v>358.6545377245489</v>
+        <v>358.2030156644912</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -11933,28 +12202,28 @@
         <v>0.1222</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02756022029067057</v>
+        <v>-0.01439857019062928</v>
       </c>
       <c r="J6" t="n">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K6" t="n">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004637371686354586</v>
+        <v>0.0001321766990199924</v>
       </c>
       <c r="M6" t="n">
-        <v>6.680319808574283</v>
+        <v>6.616102734040417</v>
       </c>
       <c r="N6" t="n">
-        <v>79.23485671239614</v>
+        <v>77.9485938251993</v>
       </c>
       <c r="O6" t="n">
-        <v>8.901396334980042</v>
+        <v>8.828850085101644</v>
       </c>
       <c r="P6" t="n">
-        <v>372.3545668370101</v>
+        <v>372.2195239356217</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -11991,7 +12260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G298"/>
+  <dimension ref="A1:G305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22677,6 +22946,265 @@
         </is>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>-36.61353330074244,175.5649407212743</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>-36.61402579960077,175.5655631282636</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>-36.61443495490618,175.56624336459285</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>-36.614612344443934,175.5670797111245</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>-36.614743941851266,175.5679344384396</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>-36.613493403383195,175.565014145657</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>-36.61408854833472,175.56548944191854</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>-36.61444546910175,175.56623703045392</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>-36.61466000684021,175.5670638558272</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>-36.61485712218987,175.56791209165874</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>-36.61351767414193,175.56496947942415</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>-36.614017964184214,175.5655723294447</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>-36.61442231866162,175.5662509771299</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>-36.61463359948221,175.5670726404594</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>-36.61473809090979,175.56793559367148</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>-36.61347992521645,175.56503894992196</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>-36.614062531027955,175.5655199942724</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>-36.61443406346565,175.56624390162938</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>-36.6146931099237,175.56705284379697</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>-36.614806438040034,175.56792209894792</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>-36.61351072525411,175.5649822676846</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>-36.61402274020559,175.56556672093174</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>-36.614330653350166,175.5663061995955</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>-36.61458912465385,175.56708743537644</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>-36.614747877785085,175.56793366131396</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>-36.613501762194,175.56499876268376</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>-36.61405598542012,175.5655276808331</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>-36.61439806067266,175.5662655910245</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>-36.61465995646197,175.56706387258595</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>-36.614790507888294,175.56792524426095</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>-36.61351488787305,175.56497460708442</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>-36.614020035974356,175.5655698965282</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>-36.61443757820249,175.56624178422265</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>-36.61462991271088,175.5670738668948</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>-36.61482160557805,175.56791910420733</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0142/nzd0142.xlsx
+++ b/data/nzd0142/nzd0142.xlsx
@@ -11739,7 +11739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11830,35 +11830,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -11917,27 +11922,28 @@
       <c r="P2" t="n">
         <v>360.5689865329472</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.561604448359 -36.61534607634442, 175.57013943771483 -36.61070821198072)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.561604448359</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.61534607634442</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.5701394377148</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.61070821198072</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.5658719430369</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.61302714416257</v>
       </c>
     </row>
@@ -11994,27 +12000,28 @@
       <c r="P3" t="n">
         <v>363.6796030962013</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.5626642977896 -36.61649423510978, 175.56973810630984 -36.61047029947111)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.5626642977896</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.61649423510978</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.5697381063098</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.61047029947111</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.5662012020497</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.61348226729045</v>
       </c>
     </row>
@@ -12071,27 +12078,28 @@
       <c r="P4" t="n">
         <v>358.919967211426</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.56443500643383 -36.61743657052244, 175.56892815946563 -36.60997812341609)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.5644350064338</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.61743657052244</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.5689281594656</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.60997812341609</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.5666815829497</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.61370734696926</v>
       </c>
     </row>
@@ -12148,27 +12156,28 @@
       <c r="P5" t="n">
         <v>358.2030156644912</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.56597911719456 -36.61792069328448, 175.56864266077764 -36.60991371008772)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.5659791171946</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.61792069328448</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.5686426607776</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.60991371008772</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.5673108889861</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.6139172016861</v>
       </c>
     </row>
@@ -12225,27 +12234,28 @@
       <c r="P6" t="n">
         <v>372.2195239356217</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.56726850992104 -36.618116565274946, 175.56888481617668 -36.6099302739859)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.567268509921</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.61811656527495</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.5688848161767</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.6099302739859</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.5680766630489</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.61402341963043</v>
       </c>
     </row>

--- a/data/nzd0142/nzd0142.xlsx
+++ b/data/nzd0142/nzd0142.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G305"/>
+  <dimension ref="A1:G308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8502,6 +8502,87 @@
         <v>370.3385714285714</v>
       </c>
       <c r="G305" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>362.51</v>
+      </c>
+      <c r="C306" t="n">
+        <v>371.43</v>
+      </c>
+      <c r="D306" t="n">
+        <v>374.8288888888889</v>
+      </c>
+      <c r="E306" t="n">
+        <v>377.278947368421</v>
+      </c>
+      <c r="F306" t="n">
+        <v>389.72</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>377.6833333333333</v>
+      </c>
+      <c r="C307" t="n">
+        <v>390.0147619047619</v>
+      </c>
+      <c r="D307" t="n">
+        <v>383.7925925925926</v>
+      </c>
+      <c r="E307" t="n">
+        <v>396.1063157894737</v>
+      </c>
+      <c r="F307" t="n">
+        <v>385.1047619047619</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>358.8666666666667</v>
+      </c>
+      <c r="C308" t="n">
+        <v>366.0338095238095</v>
+      </c>
+      <c r="D308" t="n">
+        <v>367.6496296296296</v>
+      </c>
+      <c r="E308" t="n">
+        <v>365.9536842105263</v>
+      </c>
+      <c r="F308" t="n">
+        <v>370.9638095238095</v>
+      </c>
+      <c r="G308" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -8518,7 +8599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B320"/>
+  <dimension ref="A1:B323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11726,6 +11807,36 @@
       </c>
       <c r="B320" t="n">
         <v>-0.48</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>-0.05</v>
       </c>
     </row>
   </sheetData>
@@ -11899,28 +12010,28 @@
         <v>0.06809999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1595460082138809</v>
+        <v>0.1630660182443387</v>
       </c>
       <c r="J2" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K2" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01946933718720578</v>
+        <v>0.0205240100291495</v>
       </c>
       <c r="M2" t="n">
-        <v>6.243446164680631</v>
+        <v>6.25308917034534</v>
       </c>
       <c r="N2" t="n">
-        <v>65.53010449692718</v>
+        <v>65.56949709313677</v>
       </c>
       <c r="O2" t="n">
-        <v>8.095066676496691</v>
+        <v>8.097499434587</v>
       </c>
       <c r="P2" t="n">
-        <v>360.5689865329472</v>
+        <v>360.5333172585473</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11977,28 +12088,28 @@
         <v>0.1228</v>
       </c>
       <c r="I3" t="n">
-        <v>0.203718096498954</v>
+        <v>0.2178534882232395</v>
       </c>
       <c r="J3" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K3" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02749395642786712</v>
+        <v>0.03131654663657268</v>
       </c>
       <c r="M3" t="n">
-        <v>6.728210706267669</v>
+        <v>6.761022369690307</v>
       </c>
       <c r="N3" t="n">
-        <v>74.68666914630113</v>
+        <v>75.49043396382352</v>
       </c>
       <c r="O3" t="n">
-        <v>8.642144938977887</v>
+        <v>8.688523117528291</v>
       </c>
       <c r="P3" t="n">
-        <v>363.6796030962013</v>
+        <v>363.5355425587754</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12055,28 +12166,28 @@
         <v>0.1665</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3439266290225438</v>
+        <v>0.3590862997682644</v>
       </c>
       <c r="J4" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K4" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06555257119884172</v>
+        <v>0.07158736826028622</v>
       </c>
       <c r="M4" t="n">
-        <v>7.158724865313541</v>
+        <v>7.170621241120206</v>
       </c>
       <c r="N4" t="n">
-        <v>87.13170144259774</v>
+        <v>87.28415245417366</v>
       </c>
       <c r="O4" t="n">
-        <v>9.334436321631733</v>
+        <v>9.342598806230184</v>
       </c>
       <c r="P4" t="n">
-        <v>358.919967211426</v>
+        <v>358.7664748050652</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12133,28 +12244,28 @@
         <v>0.1094</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4043765125219311</v>
+        <v>0.4272608203558554</v>
       </c>
       <c r="J5" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K5" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06502479792968574</v>
+        <v>0.07184162953868556</v>
       </c>
       <c r="M5" t="n">
-        <v>8.418750654045425</v>
+        <v>8.472172174909142</v>
       </c>
       <c r="N5" t="n">
-        <v>119.0150470239273</v>
+        <v>120.6554940362709</v>
       </c>
       <c r="O5" t="n">
-        <v>10.90940177204632</v>
+        <v>10.98432947595214</v>
       </c>
       <c r="P5" t="n">
-        <v>358.2030156644912</v>
+        <v>357.9689300065095</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12211,28 +12322,28 @@
         <v>0.1222</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01439857019062928</v>
+        <v>0.007041442295029084</v>
       </c>
       <c r="J6" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K6" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001321766990199924</v>
+        <v>3.159757000925634e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>6.616102734040417</v>
+        <v>6.647954321312726</v>
       </c>
       <c r="N6" t="n">
-        <v>77.9485938251993</v>
+        <v>78.85177119761185</v>
       </c>
       <c r="O6" t="n">
-        <v>8.828850085101644</v>
+        <v>8.879851980613857</v>
       </c>
       <c r="P6" t="n">
-        <v>372.2195239356217</v>
+        <v>371.9972185217308</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -12270,7 +12381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G305"/>
+  <dimension ref="A1:G308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23215,6 +23326,117 @@
         </is>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>-36.61352072896659,175.56496385753113</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>-36.614064188459274,175.56551804793696</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>-36.614398967120685,175.56626504494744</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>-36.61463773049801,175.56707126624224</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>-36.614649165919246,175.56795315133712</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>-36.61344432470534,175.56510446649972</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>-36.613942597725035,175.56566083263908</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>-36.61432632521016,175.56630880701854</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>-36.61447390044694,175.5671257655807</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>-36.61469022842885,175.56794504381384</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>-36.61353907469414,175.56493009527395</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>-36.61409949298577,175.56547658950922</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>-36.61445714787248,175.5662299947298</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>-36.614736279494274,175.56703848304844</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>-36.61481604273519,175.56792020255787</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0142/nzd0142.xlsx
+++ b/data/nzd0142/nzd0142.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G308"/>
+  <dimension ref="A1:G309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8583,6 +8583,33 @@
         <v>370.9638095238095</v>
       </c>
       <c r="G308" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>359.0333333333333</v>
+      </c>
+      <c r="C309" t="n">
+        <v>355.3933333333333</v>
+      </c>
+      <c r="D309" t="n">
+        <v>354.9025925925926</v>
+      </c>
+      <c r="E309" t="n">
+        <v>357.8442105263158</v>
+      </c>
+      <c r="F309" t="n">
+        <v>359.8133333333333</v>
+      </c>
+      <c r="G309" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -8599,7 +8626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B323"/>
+  <dimension ref="A1:B324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11837,6 +11864,16 @@
       </c>
       <c r="B323" t="n">
         <v>-0.05</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -12010,28 +12047,28 @@
         <v>0.06809999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1630660182443387</v>
+        <v>0.1591886752997795</v>
       </c>
       <c r="J2" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K2" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0205240100291495</v>
+        <v>0.01968259689498975</v>
       </c>
       <c r="M2" t="n">
-        <v>6.25308917034534</v>
+        <v>6.248650278525476</v>
       </c>
       <c r="N2" t="n">
-        <v>65.56949709313677</v>
+        <v>65.45301558699586</v>
       </c>
       <c r="O2" t="n">
-        <v>8.097499434587</v>
+        <v>8.090303800661372</v>
       </c>
       <c r="P2" t="n">
-        <v>360.5333172585473</v>
+        <v>360.5729902993846</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12088,28 +12125,28 @@
         <v>0.1228</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2178534882232395</v>
+        <v>0.2085276981102252</v>
       </c>
       <c r="J3" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K3" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03131654663657268</v>
+        <v>0.02872881151074669</v>
       </c>
       <c r="M3" t="n">
-        <v>6.761022369690307</v>
+        <v>6.777245404942171</v>
       </c>
       <c r="N3" t="n">
-        <v>75.49043396382352</v>
+        <v>75.86898758968179</v>
       </c>
       <c r="O3" t="n">
-        <v>8.688523117528291</v>
+        <v>8.710280568941611</v>
       </c>
       <c r="P3" t="n">
-        <v>363.5355425587754</v>
+        <v>363.6313714410375</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12166,28 +12203,28 @@
         <v>0.1665</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3590862997682644</v>
+        <v>0.350539989323937</v>
       </c>
       <c r="J4" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K4" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07158736826028622</v>
+        <v>0.06846815609339829</v>
       </c>
       <c r="M4" t="n">
-        <v>7.170621241120206</v>
+        <v>7.186089688109167</v>
       </c>
       <c r="N4" t="n">
-        <v>87.28415245417366</v>
+        <v>87.55632559557522</v>
       </c>
       <c r="O4" t="n">
-        <v>9.342598806230184</v>
+        <v>9.357153712298159</v>
       </c>
       <c r="P4" t="n">
-        <v>358.7664748050652</v>
+        <v>358.8537551494962</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12244,28 +12281,28 @@
         <v>0.1094</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4272608203558554</v>
+        <v>0.4197549177734399</v>
       </c>
       <c r="J5" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K5" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07184162953868556</v>
+        <v>0.069745038121101</v>
       </c>
       <c r="M5" t="n">
-        <v>8.472172174909142</v>
+        <v>8.477634125158259</v>
       </c>
       <c r="N5" t="n">
-        <v>120.6554940362709</v>
+        <v>120.6557985468568</v>
       </c>
       <c r="O5" t="n">
-        <v>10.98432947595214</v>
+        <v>10.98434333708014</v>
       </c>
       <c r="P5" t="n">
-        <v>357.9689300065095</v>
+        <v>358.0463597506431</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12322,28 +12359,28 @@
         <v>0.1222</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007041442295029084</v>
+        <v>-0.001802725077416252</v>
       </c>
       <c r="J6" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K6" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L6" t="n">
-        <v>3.159757000925634e-05</v>
+        <v>2.071993973062902e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>6.647954321312726</v>
+        <v>6.671450222786199</v>
       </c>
       <c r="N6" t="n">
-        <v>78.85177119761185</v>
+        <v>79.1102099475397</v>
       </c>
       <c r="O6" t="n">
-        <v>8.879851980613857</v>
+        <v>8.894392050474259</v>
       </c>
       <c r="P6" t="n">
-        <v>371.9972185217308</v>
+        <v>372.0897767467278</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -12381,7 +12418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G308"/>
+  <dimension ref="A1:G309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23437,6 +23474,43 @@
         </is>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>-36.61353823545702,175.56493163975085</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>-36.61416910816471,175.56539483961322</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>-36.61456044990072,175.56616776166328</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>-36.61480684566395,175.56701500854047</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>-36.61491525029532,175.56790061459006</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0142/nzd0142.xlsx
+++ b/data/nzd0142/nzd0142.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G309"/>
+  <dimension ref="A1:G311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8612,6 +8612,58 @@
       <c r="G309" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:06+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>360.1566666666667</v>
+      </c>
+      <c r="C310" t="n">
+        <v>371.3738095238096</v>
+      </c>
+      <c r="D310" t="n">
+        <v>367.0518518518518</v>
+      </c>
+      <c r="E310" t="n">
+        <v>367.9557894736842</v>
+      </c>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>354.6133333333333</v>
+      </c>
+      <c r="C311" t="n">
+        <v>359.2633333333333</v>
+      </c>
+      <c r="D311" t="n">
+        <v>359.2048148148148</v>
+      </c>
+      <c r="E311" t="n">
+        <v>356.7715789473684</v>
+      </c>
+      <c r="F311" t="n">
+        <v>374.7433333333333</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -8626,7 +8678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B324"/>
+  <dimension ref="A1:B326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11874,6 +11926,26 @@
       </c>
       <c r="B324" t="n">
         <v>0.35</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -12047,28 +12119,28 @@
         <v>0.06809999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1591886752997795</v>
+        <v>0.1493980460907596</v>
       </c>
       <c r="J2" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K2" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01968259689498975</v>
+        <v>0.01751026627614616</v>
       </c>
       <c r="M2" t="n">
-        <v>6.248650278525476</v>
+        <v>6.249805759325434</v>
       </c>
       <c r="N2" t="n">
-        <v>65.45301558699586</v>
+        <v>65.41148180791974</v>
       </c>
       <c r="O2" t="n">
-        <v>8.090303800661372</v>
+        <v>8.087736507077844</v>
       </c>
       <c r="P2" t="n">
-        <v>360.5729902993846</v>
+        <v>360.6734497329923</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12125,28 +12197,28 @@
         <v>0.1228</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2085276981102252</v>
+        <v>0.2036237693728954</v>
       </c>
       <c r="J3" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K3" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02872881151074669</v>
+        <v>0.02768244446841162</v>
       </c>
       <c r="M3" t="n">
-        <v>6.777245404942171</v>
+        <v>6.768398818879946</v>
       </c>
       <c r="N3" t="n">
-        <v>75.86898758968179</v>
+        <v>75.6914634951444</v>
       </c>
       <c r="O3" t="n">
-        <v>8.710280568941611</v>
+        <v>8.700084108509779</v>
       </c>
       <c r="P3" t="n">
-        <v>363.6313714410375</v>
+        <v>363.6819379622276</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12203,28 +12275,28 @@
         <v>0.1665</v>
       </c>
       <c r="I4" t="n">
-        <v>0.350539989323937</v>
+        <v>0.3444589825115076</v>
       </c>
       <c r="J4" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K4" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06846815609339829</v>
+        <v>0.06692359003224391</v>
       </c>
       <c r="M4" t="n">
-        <v>7.186089688109167</v>
+        <v>7.166918312243253</v>
       </c>
       <c r="N4" t="n">
-        <v>87.55632559557522</v>
+        <v>87.22006731466817</v>
       </c>
       <c r="O4" t="n">
-        <v>9.357153712298159</v>
+        <v>9.339168448778947</v>
       </c>
       <c r="P4" t="n">
-        <v>358.8537551494962</v>
+        <v>358.9160521731002</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12281,28 +12353,28 @@
         <v>0.1094</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4197549177734399</v>
+        <v>0.4111344469809106</v>
       </c>
       <c r="J5" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K5" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L5" t="n">
-        <v>0.069745038121101</v>
+        <v>0.06771555218463865</v>
       </c>
       <c r="M5" t="n">
-        <v>8.477634125158259</v>
+        <v>8.460411194948149</v>
       </c>
       <c r="N5" t="n">
-        <v>120.6557985468568</v>
+        <v>120.3251337367846</v>
       </c>
       <c r="O5" t="n">
-        <v>10.98434333708014</v>
+        <v>10.96928136829321</v>
       </c>
       <c r="P5" t="n">
-        <v>358.0463597506431</v>
+        <v>358.1355586112034</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12359,28 +12431,28 @@
         <v>0.1222</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001802725077416252</v>
+        <v>0.0001200898763573885</v>
       </c>
       <c r="J6" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K6" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L6" t="n">
-        <v>2.071993973062902e-06</v>
+        <v>9.258878663764847e-09</v>
       </c>
       <c r="M6" t="n">
-        <v>6.671450222786199</v>
+        <v>6.656545775760618</v>
       </c>
       <c r="N6" t="n">
-        <v>79.1102099475397</v>
+        <v>78.85433779791303</v>
       </c>
       <c r="O6" t="n">
-        <v>8.894392050474259</v>
+        <v>8.879996497629548</v>
       </c>
       <c r="P6" t="n">
-        <v>372.0897767467278</v>
+        <v>372.0695915775335</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -12418,7 +12490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G309"/>
+  <dimension ref="A1:G311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22025,7 +22097,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>-36.6149411833951,175.56789549424008</t>
+          <t>-36.614941183395096,175.56789549424008</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -23508,6 +23580,76 @@
       <c r="G309" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:06+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>-36.6135325789984,175.56494204952423</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>-36.61406455608501,175.56551761623098</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>-36.61446199226609,175.56622707628702</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>-36.61471885778359,175.56704427854007</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>-36.61356049201883,175.56489068021196</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>-36.61414378874528,175.56542457251922</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>-36.61452558468138,175.56618876581578</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>-36.614816179376916,175.567011903589</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>-36.614782415710124,175.56792684201264</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0142/nzd0142.xlsx
+++ b/data/nzd0142/nzd0142.xlsx
@@ -8678,7 +8678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B326"/>
+  <dimension ref="A1:B327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11946,6 +11946,16 @@
       </c>
       <c r="B326" t="n">
         <v>-0.7</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>-0.44</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0142/nzd0142.xlsx
+++ b/data/nzd0142/nzd0142.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G311"/>
+  <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8664,6 +8664,87 @@
       <c r="G311" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>366.07</v>
+      </c>
+      <c r="C312" t="n">
+        <v>364.56</v>
+      </c>
+      <c r="D312" t="n">
+        <v>362.5644444444445</v>
+      </c>
+      <c r="E312" t="n">
+        <v>356.4994736842105</v>
+      </c>
+      <c r="F312" t="n">
+        <v>375.27</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>364.3966666666667</v>
+      </c>
+      <c r="C313" t="n">
+        <v>361.4209523809524</v>
+      </c>
+      <c r="D313" t="n">
+        <v>353.4418518518518</v>
+      </c>
+      <c r="E313" t="n">
+        <v>358.8315789473684</v>
+      </c>
+      <c r="F313" t="n">
+        <v>374.2409523809524</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>350.89</v>
+      </c>
+      <c r="C314" t="n">
+        <v>357.82</v>
+      </c>
+      <c r="D314" t="n">
+        <v>353.1433333333333</v>
+      </c>
+      <c r="E314" t="n">
+        <v>352.7484210526316</v>
+      </c>
+      <c r="F314" t="n">
+        <v>363.14</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -8678,7 +8759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B327"/>
+  <dimension ref="A1:B330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11956,6 +12037,36 @@
       </c>
       <c r="B327" t="n">
         <v>-0.44</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>-0.63</v>
       </c>
     </row>
   </sheetData>
@@ -12129,28 +12240,28 @@
         <v>0.06809999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1493980460907596</v>
+        <v>0.1412504989015632</v>
       </c>
       <c r="J2" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K2" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01751026627614616</v>
+        <v>0.01585745224128665</v>
       </c>
       <c r="M2" t="n">
-        <v>6.249805759325434</v>
+        <v>6.233894361806472</v>
       </c>
       <c r="N2" t="n">
-        <v>65.41148180791974</v>
+        <v>65.38001629874694</v>
       </c>
       <c r="O2" t="n">
-        <v>8.087736507077844</v>
+        <v>8.085791012556962</v>
       </c>
       <c r="P2" t="n">
-        <v>360.6734497329923</v>
+        <v>360.7578794948256</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12207,28 +12318,28 @@
         <v>0.1228</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2036237693728954</v>
+        <v>0.1884040864633646</v>
       </c>
       <c r="J3" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K3" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02768244446841162</v>
+        <v>0.02407899762925914</v>
       </c>
       <c r="M3" t="n">
-        <v>6.768398818879946</v>
+        <v>6.764216243812556</v>
       </c>
       <c r="N3" t="n">
-        <v>75.6914634951444</v>
+        <v>75.57957170737707</v>
       </c>
       <c r="O3" t="n">
-        <v>8.700084108509779</v>
+        <v>8.693651229913533</v>
       </c>
       <c r="P3" t="n">
-        <v>363.6819379622276</v>
+        <v>363.840166877952</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12285,28 +12396,28 @@
         <v>0.1665</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3444589825115076</v>
+        <v>0.3225873146692236</v>
       </c>
       <c r="J4" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K4" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06692359003224391</v>
+        <v>0.05937883311610692</v>
       </c>
       <c r="M4" t="n">
-        <v>7.166918312243253</v>
+        <v>7.205336614473285</v>
       </c>
       <c r="N4" t="n">
-        <v>87.22006731466817</v>
+        <v>87.79934400356404</v>
       </c>
       <c r="O4" t="n">
-        <v>9.339168448778947</v>
+        <v>9.370130415504581</v>
       </c>
       <c r="P4" t="n">
-        <v>358.9160521731002</v>
+        <v>359.1421036382101</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12363,28 +12474,28 @@
         <v>0.1094</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4111344469809106</v>
+        <v>0.385924608975209</v>
       </c>
       <c r="J5" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K5" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06771555218463865</v>
+        <v>0.06055403625652178</v>
       </c>
       <c r="M5" t="n">
-        <v>8.460411194948149</v>
+        <v>8.493661777120543</v>
       </c>
       <c r="N5" t="n">
-        <v>120.3251337367846</v>
+        <v>120.7557087011015</v>
       </c>
       <c r="O5" t="n">
-        <v>10.96928136829321</v>
+        <v>10.98889023974221</v>
       </c>
       <c r="P5" t="n">
-        <v>358.1355586112034</v>
+        <v>358.3986084404266</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12441,28 +12552,28 @@
         <v>0.1222</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001200898763573885</v>
+        <v>-0.002399928410264107</v>
       </c>
       <c r="J6" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K6" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L6" t="n">
-        <v>9.258878663764847e-09</v>
+        <v>3.763679338075754e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>6.656545775760618</v>
+        <v>6.637755950411647</v>
       </c>
       <c r="N6" t="n">
-        <v>78.85433779791303</v>
+        <v>78.35439768178691</v>
       </c>
       <c r="O6" t="n">
-        <v>8.879996497629548</v>
+        <v>8.851801945467765</v>
       </c>
       <c r="P6" t="n">
-        <v>372.0695915775335</v>
+        <v>372.0963518096988</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -12500,7 +12611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G311"/>
+  <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23663,6 +23774,117 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>-36.613502802849034,175.56499684753425</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-36.614109135368714,175.56546526636166</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>-36.614498358232524,175.5662051680644</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>-36.61481854715394,175.56701111592454</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>-36.61477772987293,175.56792776720272</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>-36.61351122879675,175.56498134099914</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>-36.61412967255071,175.56544114932842</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>-36.61457228774651,175.56616063008394</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>-36.61479825388491,175.56701786667972</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>-36.614786885473464,175.5679259594849</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-36.61357924056021,175.5648561765697</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-36.61415323173368,175.56541348350487</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>-36.61457470694111,175.5661591726666</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>-36.61485118766974,175.56700025772952</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>-36.61488565241317,175.5679064585279</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0142/nzd0142.xlsx
+++ b/data/nzd0142/nzd0142.xlsx
@@ -8759,7 +8759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B330"/>
+  <dimension ref="A1:B331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12067,6 +12067,16 @@
       </c>
       <c r="B330" t="n">
         <v>-0.63</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0142/nzd0142.xlsx
+++ b/data/nzd0142/nzd0142.xlsx
@@ -12241,13 +12241,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0569</v>
+        <v>0.0638</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06809999999999999</v>
+        <v>0.1022</v>
       </c>
       <c r="I2" t="n">
         <v>0.1412176982109817</v>
@@ -12319,13 +12319,13 @@
         <v>0.250830516743052</v>
       </c>
       <c r="F3" t="n">
-        <v>0.105</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0941</v>
+        <v>0.0798</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1228</v>
+        <v>0.1335</v>
       </c>
       <c r="I3" t="n">
         <v>0.1884285800222983</v>
@@ -12397,13 +12397,13 @@
         <v>0.5011612770421311</v>
       </c>
       <c r="F4" t="n">
-        <v>0.135</v>
+        <v>0.165</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1143</v>
+        <v>0.1142</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1665</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>0.3226021930357449</v>
@@ -12475,13 +12475,13 @@
         <v>0.7505772575221136</v>
       </c>
       <c r="F5" t="n">
-        <v>0.095</v>
+        <v>0.12</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0866</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1094</v>
+        <v>0.1929</v>
       </c>
       <c r="I5" t="n">
         <v>0.3859490019197058</v>
@@ -12553,13 +12553,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.105</v>
+        <v>0.12</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0912</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1222</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>-0.002366550023942077</v>

--- a/data/nzd0142/nzd0142.xlsx
+++ b/data/nzd0142/nzd0142.xlsx
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>360.37</v>
+        <v>359.77</v>
       </c>
       <c r="C2" t="n">
         <v>359.34</v>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>348.62</v>
+        <v>349.13</v>
       </c>
       <c r="C3" t="n">
         <v>354.04</v>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.63</v>
+        <v>352.36</v>
       </c>
       <c r="C4" t="n">
         <v>359.69</v>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>362.76</v>
+        <v>362.44</v>
       </c>
       <c r="C5" t="n">
         <v>368.98</v>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>360.29</v>
+        <v>359.72</v>
       </c>
       <c r="C6" t="n">
         <v>368.28</v>
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>347.25</v>
+        <v>348.25</v>
       </c>
       <c r="C8" t="n">
         <v>356.1</v>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>366.08</v>
+        <v>365.91</v>
       </c>
       <c r="C9" t="n">
         <v>369.56</v>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>365.93</v>
+        <v>366.26</v>
       </c>
       <c r="C10" t="n">
         <v>363.06</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>367.63</v>
+        <v>367.38</v>
       </c>
       <c r="C11" t="n">
         <v>362.3</v>
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>366.54</v>
+        <v>366.19</v>
       </c>
       <c r="C12" t="n">
         <v>362.96</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>357.76</v>
+        <v>358.74</v>
       </c>
       <c r="C13" t="n">
         <v>370.19</v>
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>363.12</v>
+        <v>362.37</v>
       </c>
       <c r="C14" t="n">
         <v>363.96</v>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>368.32</v>
+        <v>368.87</v>
       </c>
       <c r="C15" t="n">
         <v>370.41</v>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>371.55</v>
+        <v>371.25</v>
       </c>
       <c r="C16" t="n">
         <v>369.43</v>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>339.86</v>
+        <v>339.56</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>358.95</v>
+        <v>359.08</v>
       </c>
       <c r="C18" t="n">
         <v>369.21</v>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>367.25</v>
+        <v>367.55</v>
       </c>
       <c r="C19" t="n">
         <v>377.08</v>
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>372.67</v>
+        <v>372.32</v>
       </c>
       <c r="C20" t="n">
         <v>362.78</v>
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>364.94</v>
+        <v>364.36</v>
       </c>
       <c r="C21" t="n">
         <v>366.57</v>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>371.28</v>
+        <v>371.08</v>
       </c>
       <c r="C22" t="n">
         <v>371.54</v>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>363.95</v>
+        <v>363.51</v>
       </c>
       <c r="C23" t="n">
         <v>367.83</v>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>373.62</v>
+        <v>373.85</v>
       </c>
       <c r="C24" t="n">
         <v>371.29</v>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>361.61</v>
+        <v>361.71</v>
       </c>
       <c r="C25" t="n">
         <v>370.99</v>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>359.5</v>
+        <v>359.03</v>
       </c>
       <c r="C26" t="n">
         <v>367.19</v>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>359.76</v>
+        <v>360.09</v>
       </c>
       <c r="C27" t="n">
         <v>373.03</v>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>345.06</v>
+        <v>345.86</v>
       </c>
       <c r="C28" t="n">
         <v>353.24</v>
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>367.39</v>
+        <v>367.99</v>
       </c>
       <c r="C29" t="n">
         <v>368.71</v>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>367.25</v>
+        <v>366.84</v>
       </c>
       <c r="C30" t="n">
         <v>370.71</v>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>345.63</v>
+        <v>345.55</v>
       </c>
       <c r="C31" t="n">
         <v>347.45</v>
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>360.68</v>
+        <v>360.62</v>
       </c>
       <c r="C32" t="n">
         <v>361.56</v>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>339.16</v>
+        <v>338.76</v>
       </c>
       <c r="C33" t="n">
         <v>338.53</v>
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>357.56</v>
+        <v>357.89</v>
       </c>
       <c r="C34" t="n">
         <v>365.46</v>
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>350.36</v>
+        <v>349.99</v>
       </c>
       <c r="C35" t="n">
         <v>355.22</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>367.97</v>
+        <v>368.32</v>
       </c>
       <c r="C36" t="n">
         <v>367.41</v>
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>353.44</v>
+        <v>353.59</v>
       </c>
       <c r="C37" t="n">
         <v>357.33</v>
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>358.44</v>
+        <v>357.97</v>
       </c>
       <c r="C38" t="n">
         <v>362.29</v>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>362.75</v>
+        <v>362.08</v>
       </c>
       <c r="C40" t="n">
         <v>367.28</v>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>367.77</v>
+        <v>368.35</v>
       </c>
       <c r="C41" t="n">
         <v>364.05</v>
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>360.88</v>
+        <v>361.51</v>
       </c>
       <c r="C42" t="n">
         <v>378.04</v>
@@ -1559,7 +1559,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>362.27</v>
+        <v>362.59</v>
       </c>
       <c r="C43" t="n">
         <v>369.38</v>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>346.14</v>
+        <v>346.9</v>
       </c>
       <c r="C44" t="n">
         <v>353.21</v>
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>357.65</v>
+        <v>358.21</v>
       </c>
       <c r="C45" t="n">
         <v>369.47</v>
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>373.3</v>
+        <v>372.87</v>
       </c>
       <c r="C46" t="n">
         <v>384.47</v>
@@ -1663,7 +1663,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>372.11</v>
+        <v>372.6</v>
       </c>
       <c r="C47" t="n">
         <v>383.91</v>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>349.91</v>
+        <v>350.39</v>
       </c>
       <c r="C49" t="n">
         <v>345.46</v>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>359</v>
+        <v>358.85</v>
       </c>
       <c r="C50" t="n">
         <v>358.11</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>356.82</v>
+        <v>357.45</v>
       </c>
       <c r="C52" t="n">
         <v>361.15</v>
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>364.38</v>
+        <v>364.18</v>
       </c>
       <c r="C54" t="n">
         <v>372.38</v>
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>363</v>
+        <v>362.52</v>
       </c>
       <c r="C55" t="n">
         <v>375.89</v>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>357.49</v>
+        <v>358.22</v>
       </c>
       <c r="C56" t="n">
         <v>358.11</v>
@@ -1919,7 +1919,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>355.79</v>
+        <v>355.34</v>
       </c>
       <c r="C57" t="n">
         <v>356.26</v>
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>368.61</v>
+        <v>368.29</v>
       </c>
       <c r="C58" t="n">
         <v>369.15</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>370</v>
+        <v>369.6</v>
       </c>
       <c r="C59" t="n">
         <v>369.6</v>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>362</v>
+        <v>362.6</v>
       </c>
       <c r="C60" t="n">
         <v>366.79</v>
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>366.08</v>
+        <v>365.4</v>
       </c>
       <c r="C61" t="n">
         <v>366.24</v>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>363.83</v>
+        <v>363.54</v>
       </c>
       <c r="C62" t="n">
         <v>362.49</v>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>363.13</v>
+        <v>362.91</v>
       </c>
       <c r="C63" t="n">
         <v>362.67</v>
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>368.51</v>
+        <v>368.79</v>
       </c>
       <c r="C64" t="n">
         <v>371.65</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>368.62</v>
+        <v>369.25</v>
       </c>
       <c r="C65" t="n">
         <v>379.98</v>
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>368.3</v>
+        <v>368.92</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>356.13</v>
+        <v>355.7</v>
       </c>
       <c r="C67" t="n">
         <v>364.67</v>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>356.29</v>
+        <v>356.18</v>
       </c>
       <c r="C68" t="n">
         <v>370.39</v>
@@ -2233,7 +2233,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>354.51</v>
+        <v>354.41</v>
       </c>
       <c r="C69" t="n">
         <v>359.82</v>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>374.89</v>
+        <v>375.36</v>
       </c>
       <c r="C70" t="n">
         <v>378.57</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>362.01</v>
+        <v>362.31</v>
       </c>
       <c r="C71" t="n">
         <v>362.07</v>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>359.7</v>
+        <v>360.05</v>
       </c>
       <c r="C72" t="n">
         <v>360.31</v>
@@ -2339,7 +2339,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>357.96</v>
+        <v>358.76</v>
       </c>
       <c r="C73" t="n">
         <v>354.71</v>
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>360.54</v>
+        <v>361.18</v>
       </c>
       <c r="C74" t="n">
         <v>359.74</v>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>358.25</v>
+        <v>358.85</v>
       </c>
       <c r="C75" t="n">
         <v>365.86</v>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>370.39</v>
+        <v>369.67</v>
       </c>
       <c r="C76" t="n">
         <v>367.22</v>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>352.69</v>
+        <v>352.11</v>
       </c>
       <c r="C77" t="n">
         <v>353.05</v>
@@ -2474,7 +2474,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>366.3</v>
+        <v>367.07</v>
       </c>
       <c r="C78" t="n">
         <v>372.95</v>
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>370.18</v>
+        <v>370.01</v>
       </c>
       <c r="C79" t="n">
         <v>371.7</v>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>361.31</v>
+        <v>361.86</v>
       </c>
       <c r="C80" t="n">
         <v>364.48</v>
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>364.54</v>
+        <v>364.12</v>
       </c>
       <c r="C82" t="n">
         <v>369.7</v>
@@ -2609,7 +2609,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>347.48</v>
+        <v>347.85</v>
       </c>
       <c r="C83" t="n">
         <v>351.52</v>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>364.43</v>
+        <v>365.25</v>
       </c>
       <c r="C84" t="n">
         <v>373.42</v>
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>367.12</v>
+        <v>366.94</v>
       </c>
       <c r="C85" t="n">
         <v>374.68</v>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>357.35</v>
+        <v>356.68</v>
       </c>
       <c r="C86" t="n">
         <v>367.64</v>
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>344.04</v>
+        <v>343.86</v>
       </c>
       <c r="C87" t="n">
         <v>351.24</v>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>369.37</v>
+        <v>369.69</v>
       </c>
       <c r="C88" t="n">
         <v>369.93</v>
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>368.21</v>
+        <v>368.74</v>
       </c>
       <c r="C89" t="n">
         <v>375.81</v>
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>362.87</v>
+        <v>362.15</v>
       </c>
       <c r="C90" t="n">
         <v>365.62</v>
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>355.56</v>
+        <v>355.17</v>
       </c>
       <c r="C91" t="n">
         <v>360.35</v>
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>363.67</v>
+        <v>364.32</v>
       </c>
       <c r="C92" t="n">
         <v>361.26</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>364.83</v>
+        <v>364.56</v>
       </c>
       <c r="C93" t="n">
         <v>366.82</v>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>360.88</v>
+        <v>360.32</v>
       </c>
       <c r="C94" t="n">
         <v>368.02</v>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>354.69</v>
+        <v>355.45</v>
       </c>
       <c r="C95" t="n">
         <v>362.55</v>
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>357.06</v>
+        <v>356.62</v>
       </c>
       <c r="C96" t="n">
         <v>361.1</v>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>367.9</v>
+        <v>367.85</v>
       </c>
       <c r="C97" t="n">
         <v>367.6</v>
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>362.31</v>
+        <v>362.26</v>
       </c>
       <c r="C98" t="n">
         <v>367.3</v>
@@ -3033,7 +3033,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>371.73</v>
+        <v>372.03</v>
       </c>
       <c r="C99" t="n">
         <v>367.95</v>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>343.44</v>
+        <v>343.76</v>
       </c>
       <c r="C100" t="n">
         <v>362.53</v>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>363.31</v>
+        <v>362.64</v>
       </c>
       <c r="C101" t="n">
         <v>371.13</v>
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>368.31</v>
+        <v>369.09</v>
       </c>
       <c r="C102" t="n">
         <v>374.35</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>361.07</v>
+        <v>360.49</v>
       </c>
       <c r="C103" t="n">
         <v>364.61</v>
@@ -3168,7 +3168,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>364.17</v>
+        <v>363.46</v>
       </c>
       <c r="C104" t="n">
         <v>365.2</v>
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>376.55</v>
+        <v>377.27</v>
       </c>
       <c r="C105" t="n">
         <v>370.31</v>
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>360.84</v>
+        <v>360.26</v>
       </c>
       <c r="C106" t="n">
         <v>357.59</v>
@@ -3249,7 +3249,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>360.72</v>
+        <v>360.42</v>
       </c>
       <c r="C107" t="n">
         <v>363.45</v>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>360.84</v>
+        <v>360.54</v>
       </c>
       <c r="C108" t="n">
         <v>364.34</v>
@@ -3303,7 +3303,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>349.73</v>
+        <v>350.46</v>
       </c>
       <c r="C109" t="n">
         <v>356.23</v>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>371.05</v>
+        <v>370.53</v>
       </c>
       <c r="C110" t="n">
         <v>367.17</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>370.72</v>
+        <v>370.69</v>
       </c>
       <c r="C111" t="n">
         <v>370.9</v>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>363.93</v>
+        <v>363.97</v>
       </c>
       <c r="C112" t="n">
         <v>364.61</v>
@@ -3411,7 +3411,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>360.03</v>
+        <v>359.3</v>
       </c>
       <c r="C113" t="n">
         <v>360.4</v>
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>353.37</v>
+        <v>352.84</v>
       </c>
       <c r="C114" t="n">
         <v>359.43</v>
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>360.18</v>
+        <v>359.98</v>
       </c>
       <c r="C115" t="n">
         <v>361.22</v>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>368.84</v>
+        <v>369.24</v>
       </c>
       <c r="C116" t="n">
         <v>361.78</v>
@@ -3519,7 +3519,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>343.05</v>
+        <v>343.67</v>
       </c>
       <c r="C117" t="n">
         <v>346.87</v>
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>343.61</v>
+        <v>344.33</v>
       </c>
       <c r="C118" t="n">
         <v>347.05</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>365.74</v>
+        <v>365.86</v>
       </c>
       <c r="C119" t="n">
         <v>373.56</v>
@@ -3600,7 +3600,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>349.82</v>
+        <v>350.57</v>
       </c>
       <c r="C120" t="n">
         <v>359.65</v>
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>365.36</v>
+        <v>364.96</v>
       </c>
       <c r="C121" t="n">
         <v>370.37</v>
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>359.93</v>
+        <v>359.32</v>
       </c>
       <c r="C122" t="n">
         <v>364.59</v>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>365.13</v>
+        <v>365.93</v>
       </c>
       <c r="C123" t="n">
         <v>367.48</v>
@@ -3708,7 +3708,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>362.86</v>
+        <v>362.43</v>
       </c>
       <c r="C124" t="n">
         <v>358.34</v>
@@ -3735,7 +3735,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>365.53</v>
+        <v>365.7</v>
       </c>
       <c r="C125" t="n">
         <v>369.85</v>
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>366.27</v>
+        <v>366.59</v>
       </c>
       <c r="C126" t="n">
         <v>361.87</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>364.62</v>
+        <v>364.27</v>
       </c>
       <c r="C127" t="n">
         <v>368.83</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>376.12</v>
+        <v>376.55</v>
       </c>
       <c r="C128" t="n">
         <v>378.36</v>
@@ -3843,7 +3843,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>359.38</v>
+        <v>360.11</v>
       </c>
       <c r="C129" t="n">
         <v>364.35</v>
@@ -3870,7 +3870,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>373.64</v>
+        <v>373.77</v>
       </c>
       <c r="C130" t="n">
         <v>367.72</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>366.78</v>
+        <v>366.76</v>
       </c>
       <c r="C131" t="n">
         <v>357.84</v>
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>364.63</v>
+        <v>364.15</v>
       </c>
       <c r="C132" t="n">
         <v>362.53</v>
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>367.1</v>
+        <v>367.58</v>
       </c>
       <c r="C133" t="n">
         <v>366.45</v>
@@ -3978,7 +3978,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>369.12</v>
+        <v>368.49</v>
       </c>
       <c r="C134" t="n">
         <v>361.93</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>355.83</v>
+        <v>355.36</v>
       </c>
       <c r="C135" t="n">
         <v>360.2</v>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>360.09</v>
+        <v>359.84</v>
       </c>
       <c r="C136" t="n">
         <v>354.16</v>
@@ -4059,7 +4059,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>367.62</v>
+        <v>367.16</v>
       </c>
       <c r="C137" t="n">
         <v>368.45</v>
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>349.98</v>
+        <v>350.78</v>
       </c>
       <c r="C138" t="n">
         <v>349.84</v>
@@ -4113,7 +4113,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>369.67</v>
+        <v>369.27</v>
       </c>
       <c r="C139" t="n">
         <v>370.37</v>
@@ -4163,7 +4163,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>375.35</v>
+        <v>375.67</v>
       </c>
       <c r="C141" t="n">
         <v>373.23</v>
@@ -4190,7 +4190,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>357.1</v>
+        <v>357.09</v>
       </c>
       <c r="C142" t="n">
         <v>358.07</v>
@@ -4217,7 +4217,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>364.55</v>
+        <v>364.48</v>
       </c>
       <c r="C143" t="n">
         <v>367.14</v>
@@ -4244,7 +4244,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>363.65</v>
+        <v>364.23</v>
       </c>
       <c r="C144" t="n">
         <v>373.19</v>
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>362.25</v>
+        <v>362.43</v>
       </c>
       <c r="C145" t="n">
         <v>363.5</v>
@@ -4298,7 +4298,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>346.12</v>
+        <v>345.8</v>
       </c>
       <c r="C146" t="n">
         <v>352</v>
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>360.89</v>
+        <v>360.87</v>
       </c>
       <c r="C147" t="n">
         <v>362.85</v>
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>362.16</v>
+        <v>362.98</v>
       </c>
       <c r="C148" t="n">
         <v>366.65</v>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>360.02</v>
+        <v>359.57</v>
       </c>
       <c r="C149" t="n">
         <v>359.21</v>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>368.7</v>
+        <v>368.62</v>
       </c>
       <c r="C150" t="n">
         <v>371.68</v>
@@ -4433,7 +4433,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>366.86</v>
+        <v>366.89</v>
       </c>
       <c r="C151" t="n">
         <v>373.84</v>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>369.26</v>
+        <v>368.51</v>
       </c>
       <c r="C152" t="n">
         <v>365.88</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>363.17</v>
+        <v>362.57</v>
       </c>
       <c r="C153" t="n">
         <v>366.71</v>
@@ -4514,7 +4514,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>363.35</v>
+        <v>364.05</v>
       </c>
       <c r="C154" t="n">
         <v>365.26</v>
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>359.04</v>
+        <v>358.67</v>
       </c>
       <c r="C155" t="n">
         <v>364.21</v>
@@ -4566,7 +4566,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>368.81</v>
+        <v>368.68</v>
       </c>
       <c r="C156" t="n">
         <v>370.77</v>
@@ -4593,7 +4593,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>361.07</v>
+        <v>361.59</v>
       </c>
       <c r="C157" t="n">
         <v>363.41</v>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>358.89</v>
+        <v>358.29</v>
       </c>
       <c r="C158" t="n">
         <v>361.88</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>363.2</v>
+        <v>362.78</v>
       </c>
       <c r="C159" t="n">
         <v>374.24</v>
@@ -4674,7 +4674,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>369.02</v>
+        <v>369.17</v>
       </c>
       <c r="C160" t="n">
         <v>377.96</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>365.8</v>
+        <v>366.4</v>
       </c>
       <c r="C161" t="n">
         <v>388.9</v>
@@ -4728,7 +4728,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>359.27</v>
+        <v>358.92</v>
       </c>
       <c r="C162" t="n">
         <v>360.87</v>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>364.43</v>
+        <v>365.3</v>
       </c>
       <c r="C163" t="n">
         <v>382.96</v>
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>366.8</v>
+        <v>367.62</v>
       </c>
       <c r="C164" t="n">
         <v>378.2</v>
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>357.32</v>
+        <v>356.97</v>
       </c>
       <c r="C165" t="n">
         <v>368.32</v>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>368.49</v>
+        <v>368.32</v>
       </c>
       <c r="C166" t="n">
         <v>389.38</v>
@@ -4863,7 +4863,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>368.73</v>
+        <v>368.85</v>
       </c>
       <c r="C167" t="n">
         <v>388.34</v>
@@ -4890,7 +4890,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>365.04</v>
+        <v>364.44</v>
       </c>
       <c r="C168" t="n">
         <v>374.37</v>
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>363.08</v>
+        <v>363.88</v>
       </c>
       <c r="C169" t="n">
         <v>365.75</v>
@@ -4944,7 +4944,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>370.08</v>
+        <v>369.64</v>
       </c>
       <c r="C170" t="n">
         <v>369.82</v>
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>370.44</v>
+        <v>369.84</v>
       </c>
       <c r="C171" t="n">
         <v>366.88</v>
@@ -4998,7 +4998,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>357.86</v>
+        <v>358.25</v>
       </c>
       <c r="C172" t="n">
         <v>359.15</v>
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>336.48</v>
+        <v>335.95</v>
       </c>
       <c r="C173" t="n">
         <v>347.05</v>
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>369.73</v>
+        <v>370.13</v>
       </c>
       <c r="C174" t="n">
         <v>369.67</v>
@@ -5098,7 +5098,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>361.59</v>
+        <v>362.51</v>
       </c>
       <c r="C176" t="n">
         <v>359.56</v>
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>356.19</v>
+        <v>355.75</v>
       </c>
       <c r="C177" t="n">
         <v>359.95</v>
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>361.32</v>
+        <v>361.52</v>
       </c>
       <c r="C178" t="n">
         <v>363.53</v>
@@ -5179,7 +5179,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>362.15</v>
+        <v>361.75</v>
       </c>
       <c r="C179" t="n">
         <v>362.07</v>
@@ -5206,7 +5206,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>348.99</v>
+        <v>348.44</v>
       </c>
       <c r="C180" t="n">
         <v>354.96</v>
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>357.81</v>
+        <v>358.11</v>
       </c>
       <c r="C181" t="n">
         <v>361.57</v>
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>360.8</v>
+        <v>361.18</v>
       </c>
       <c r="C182" t="n">
         <v>365.79</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>364.29</v>
+        <v>363.63</v>
       </c>
       <c r="C183" t="n">
         <v>379.28</v>
@@ -5314,7 +5314,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>362.01</v>
+        <v>362.62</v>
       </c>
       <c r="C184" t="n">
         <v>360.72</v>
@@ -5341,7 +5341,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>373.97</v>
+        <v>374.04</v>
       </c>
       <c r="C185" t="n">
         <v>374.08</v>
@@ -5391,7 +5391,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>372.6</v>
+        <v>372.09</v>
       </c>
       <c r="C187" t="n">
         <v>361.52</v>
@@ -5418,7 +5418,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>356.42</v>
+        <v>355.89</v>
       </c>
       <c r="C188" t="n">
         <v>355.89</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>373.32</v>
+        <v>373.49</v>
       </c>
       <c r="C189" t="n">
         <v>367.56</v>
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>365.2</v>
+        <v>364.93</v>
       </c>
       <c r="C190" t="n">
         <v>366.92</v>
@@ -5499,7 +5499,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>362.38</v>
+        <v>362.65</v>
       </c>
       <c r="C191" t="n">
         <v>382.64</v>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>366.55</v>
+        <v>367.17</v>
       </c>
       <c r="C192" t="n">
         <v>382.44</v>
@@ -5553,7 +5553,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>362.77</v>
+        <v>363.43</v>
       </c>
       <c r="C193" t="n">
         <v>375.91</v>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>356.33</v>
+        <v>355.81</v>
       </c>
       <c r="C194" t="n">
         <v>360.87</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>359.92</v>
+        <v>359.57</v>
       </c>
       <c r="C195" t="n">
         <v>371.14</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>378.17</v>
+        <v>378.31</v>
       </c>
       <c r="C197" t="n">
         <v>386.67</v>
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>372.29</v>
+        <v>372.73</v>
       </c>
       <c r="C198" t="n">
         <v>383.12</v>
@@ -5738,7 +5738,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>371.84</v>
+        <v>371.27</v>
       </c>
       <c r="C200" t="n">
         <v>379.08</v>
@@ -5763,7 +5763,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>381.87</v>
+        <v>382.09</v>
       </c>
       <c r="C201" t="n">
         <v>367.45</v>
@@ -5790,7 +5790,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>369.23</v>
+        <v>369.6</v>
       </c>
       <c r="C202" t="n">
         <v>373.08</v>
@@ -5830,7 +5830,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>377.86</v>
+        <v>378.43</v>
       </c>
       <c r="C204" t="n">
         <v>378.66</v>
@@ -5857,7 +5857,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>371.93</v>
+        <v>372.12</v>
       </c>
       <c r="C205" t="n">
         <v>370.87</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>363.95</v>
+        <v>364.53</v>
       </c>
       <c r="C206" t="n">
         <v>364.59</v>
@@ -5911,7 +5911,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>371.87</v>
+        <v>371.54</v>
       </c>
       <c r="C207" t="n">
         <v>370.8</v>
@@ -5938,7 +5938,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>358.85</v>
+        <v>359.43</v>
       </c>
       <c r="C208" t="n">
         <v>360.56</v>
@@ -5961,7 +5961,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>366</v>
+        <v>365.4</v>
       </c>
       <c r="C209" t="n">
         <v>366.54</v>
@@ -5988,7 +5988,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>363.88</v>
+        <v>363.43</v>
       </c>
       <c r="C210" t="n">
         <v>369.75</v>
@@ -6015,7 +6015,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>381.24</v>
+        <v>381.61</v>
       </c>
       <c r="C211" t="n">
         <v>382.21</v>
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>372.17</v>
+        <v>372.5</v>
       </c>
       <c r="C213" t="n">
         <v>388.59</v>
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>363.14</v>
+        <v>363.04</v>
       </c>
       <c r="C214" t="n">
         <v>373.16</v>
@@ -6119,7 +6119,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>366.05</v>
+        <v>366.72</v>
       </c>
       <c r="C215" t="n">
         <v>386.13</v>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>360.37</v>
+        <v>360.02</v>
       </c>
       <c r="C216" t="n">
         <v>372.85</v>
@@ -6173,7 +6173,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>379.14</v>
+        <v>379.67</v>
       </c>
       <c r="C217" t="n">
         <v>390.68</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>371.77</v>
+        <v>372.39</v>
       </c>
       <c r="C218" t="n">
         <v>376.99</v>
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>379.14</v>
+        <v>379.27</v>
       </c>
       <c r="C219" t="n">
         <v>374.43</v>
@@ -6250,7 +6250,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>362.28</v>
+        <v>361.98</v>
       </c>
       <c r="C220" t="n">
         <v>362.53</v>
@@ -6300,7 +6300,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>365.86</v>
+        <v>365.2</v>
       </c>
       <c r="C222" t="n">
         <v>364.89</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>370.46</v>
+        <v>371.34</v>
       </c>
       <c r="C223" t="n">
         <v>365.58</v>
@@ -6354,7 +6354,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>377.02</v>
+        <v>377.22</v>
       </c>
       <c r="C224" t="n">
         <v>374.83</v>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>360.18</v>
+        <v>360.36</v>
       </c>
       <c r="C226" t="n">
         <v>357.46</v>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>357.56</v>
+        <v>357.14</v>
       </c>
       <c r="C227" t="n">
         <v>363.47</v>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>364.45</v>
+        <v>364.83</v>
       </c>
       <c r="C228" t="n">
         <v>372.06</v>
@@ -6481,7 +6481,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>372.35</v>
+        <v>372.12</v>
       </c>
       <c r="C229" t="n">
         <v>378.81</v>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>353.51</v>
+        <v>353.06</v>
       </c>
       <c r="C230" t="n">
         <v>366.36</v>
@@ -6535,7 +6535,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>362.35</v>
+        <v>363.2</v>
       </c>
       <c r="C231" t="n">
         <v>363.92</v>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>379.37</v>
+        <v>379.46</v>
       </c>
       <c r="C232" t="n">
         <v>383.77</v>
@@ -6589,7 +6589,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>380.61</v>
+        <v>380.66</v>
       </c>
       <c r="C233" t="n">
         <v>384.3</v>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>351.26</v>
+        <v>350.61</v>
       </c>
       <c r="C234" t="n">
         <v>351.47</v>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>362.8</v>
+        <v>362.49</v>
       </c>
       <c r="C235" t="n">
         <v>363.37</v>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>365.68</v>
+        <v>366.33</v>
       </c>
       <c r="C236" t="n">
         <v>365.53</v>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>361.32</v>
+        <v>360.85</v>
       </c>
       <c r="C237" t="n">
         <v>365.71</v>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>351.09</v>
+        <v>350.72</v>
       </c>
       <c r="C238" t="n">
         <v>352.66</v>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>359.69</v>
+        <v>359.55</v>
       </c>
       <c r="C240" t="n">
         <v>375.27</v>
@@ -6799,7 +6799,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>361.04</v>
+        <v>361.33</v>
       </c>
       <c r="C241" t="n">
         <v>366.09</v>
@@ -6826,7 +6826,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>356.73</v>
+        <v>356.38</v>
       </c>
       <c r="C242" t="n">
         <v>363.72</v>
@@ -6853,7 +6853,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>360.44</v>
+        <v>360.29</v>
       </c>
       <c r="C243" t="n">
         <v>362.61</v>
@@ -6880,7 +6880,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>362.92</v>
+        <v>362.37</v>
       </c>
       <c r="C244" t="n">
         <v>364.44</v>
@@ -6907,7 +6907,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>369.52</v>
+        <v>369.6</v>
       </c>
       <c r="C245" t="n">
         <v>373.45</v>
@@ -6934,7 +6934,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>372.88</v>
+        <v>373.11</v>
       </c>
       <c r="C246" t="n">
         <v>368.6</v>
@@ -6961,7 +6961,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>345.74</v>
+        <v>345.18</v>
       </c>
       <c r="C247" t="n">
         <v>349.5</v>
@@ -6988,7 +6988,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>368.33</v>
+        <v>368.86</v>
       </c>
       <c r="C248" t="n">
         <v>358.43</v>
@@ -7015,7 +7015,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>357.56</v>
+        <v>356.89</v>
       </c>
       <c r="C249" t="n">
         <v>358.56</v>
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>360.51</v>
+        <v>360.79</v>
       </c>
       <c r="C250" t="n">
         <v>361.61</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>363.88</v>
+        <v>363.67</v>
       </c>
       <c r="C251" t="n">
         <v>359.76</v>
@@ -7113,7 +7113,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>351.36</v>
+        <v>351.73</v>
       </c>
       <c r="C253" t="n">
         <v>351.44</v>
@@ -7140,7 +7140,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>361.76</v>
+        <v>361.28</v>
       </c>
       <c r="C254" t="n">
         <v>362.86</v>
@@ -7167,7 +7167,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>349.3</v>
+        <v>348.89</v>
       </c>
       <c r="C255" t="n">
         <v>353.84</v>
@@ -7194,7 +7194,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>371.14</v>
+        <v>371.39</v>
       </c>
       <c r="C256" t="n">
         <v>364.41</v>
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>349.38</v>
+        <v>348.99</v>
       </c>
       <c r="C257" t="n">
         <v>351.35</v>
@@ -7248,7 +7248,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>352</v>
+        <v>352.97</v>
       </c>
       <c r="C258" t="n">
         <v>349.48</v>
@@ -7275,7 +7275,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>363.05</v>
+        <v>362.58</v>
       </c>
       <c r="C259" t="n">
         <v>357.91</v>
@@ -7329,7 +7329,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>364.38</v>
+        <v>364.35</v>
       </c>
       <c r="C261" t="n">
         <v>364.26</v>
@@ -7356,7 +7356,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>364.37</v>
+        <v>364.65</v>
       </c>
       <c r="C262" t="n">
         <v>359.94</v>
@@ -7383,7 +7383,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>362.23</v>
+        <v>362.58</v>
       </c>
       <c r="C263" t="n">
         <v>366.82</v>
@@ -7410,7 +7410,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>362.96</v>
+        <v>362.56</v>
       </c>
       <c r="C264" t="n">
         <v>362.09</v>
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>366.03</v>
+        <v>365.78</v>
       </c>
       <c r="C265" t="n">
         <v>368.54</v>
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>359.3</v>
+        <v>359.65</v>
       </c>
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="inlineStr"/>
@@ -7483,7 +7483,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>356.35</v>
+        <v>356.99</v>
       </c>
       <c r="C267" t="n">
         <v>356.09</v>
@@ -7535,7 +7535,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>351.5</v>
+        <v>350.98</v>
       </c>
       <c r="C269" t="n">
         <v>371.55</v>
@@ -7560,7 +7560,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>366.09</v>
+        <v>366.37</v>
       </c>
       <c r="C270" t="n">
         <v>367.77</v>
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>358.3</v>
+        <v>357.77</v>
       </c>
       <c r="C271" t="n">
         <v>363.55</v>
@@ -7614,7 +7614,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>372.25</v>
+        <v>372.36</v>
       </c>
       <c r="C272" t="n">
         <v>374.3</v>
@@ -7641,7 +7641,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>362.81</v>
+        <v>362.83</v>
       </c>
       <c r="C273" t="n">
         <v>367.99</v>
@@ -7668,7 +7668,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>367.06</v>
+        <v>366.53</v>
       </c>
       <c r="C274" t="n">
         <v>368.71</v>
@@ -7695,7 +7695,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>365.14</v>
+        <v>365.94</v>
       </c>
       <c r="C275" t="n">
         <v>365.53</v>
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>363.35</v>
+        <v>362.8</v>
       </c>
       <c r="C276" t="n">
         <v>365.6</v>
@@ -7770,7 +7770,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>368.69</v>
+        <v>369.21</v>
       </c>
       <c r="C278" t="n">
         <v>364.61</v>
@@ -7797,7 +7797,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>377.26</v>
+        <v>377.82</v>
       </c>
       <c r="C279" t="n">
         <v>375.62</v>
@@ -7845,7 +7845,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>359.93</v>
+        <v>360.47</v>
       </c>
       <c r="C281" t="n">
         <v>361.84</v>
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>364.5</v>
+        <v>364.05</v>
       </c>
       <c r="C282" t="n">
         <v>365.52</v>
@@ -7899,7 +7899,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>362.1</v>
+        <v>362.42</v>
       </c>
       <c r="C283" t="n">
         <v>366.64</v>
@@ -7926,7 +7926,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>363.25</v>
+        <v>364.08</v>
       </c>
       <c r="C284" t="n">
         <v>365.54</v>
@@ -7949,7 +7949,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>355.85</v>
+        <v>356.82</v>
       </c>
       <c r="C285" t="n">
         <v>369.62</v>
@@ -7976,7 +7976,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>358.26</v>
+        <v>357.91</v>
       </c>
       <c r="C286" t="n">
         <v>372.79</v>
@@ -8003,7 +8003,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>363.75</v>
+        <v>364.35</v>
       </c>
       <c r="C287" t="n">
         <v>381.2</v>
@@ -8030,7 +8030,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>362.95</v>
+        <v>362.45</v>
       </c>
       <c r="C288" t="n">
         <v>377.46</v>
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>366.32</v>
+        <v>366.6</v>
       </c>
       <c r="C289" t="n">
         <v>384.11</v>
@@ -8084,7 +8084,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>372.24</v>
+        <v>372.46</v>
       </c>
       <c r="C290" t="n">
         <v>394.93</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>358.12</v>
+        <v>358.39</v>
       </c>
       <c r="C291" t="n">
         <v>373.87</v>
@@ -8136,7 +8136,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>367.63</v>
+        <v>367.08</v>
       </c>
       <c r="C292" t="n">
         <v>370.93</v>
@@ -8163,7 +8163,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>369</v>
+        <v>369.65</v>
       </c>
       <c r="C293" t="n">
         <v>380.85</v>
@@ -8190,7 +8190,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>364.26</v>
+        <v>363.86</v>
       </c>
       <c r="C294" t="n">
         <v>368.69</v>
@@ -8217,7 +8217,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>364.61</v>
+        <v>364.73</v>
       </c>
       <c r="C295" t="n">
         <v>375.41</v>
@@ -8244,7 +8244,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>354.81</v>
+        <v>354.99</v>
       </c>
       <c r="C296" t="n">
         <v>359.13</v>
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>366.94</v>
+        <v>366.31</v>
       </c>
       <c r="C297" t="n">
         <v>375.22</v>
@@ -8298,7 +8298,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>363.38</v>
+        <v>363.05</v>
       </c>
       <c r="C298" t="n">
         <v>366.34</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>362.18</v>
+        <v>361.75</v>
       </c>
       <c r="C299" t="n">
         <v>377.05</v>
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>364.14</v>
+        <v>364.9</v>
       </c>
       <c r="C300" t="n">
         <v>368.14</v>
@@ -8379,7 +8379,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>365.7</v>
+        <v>365.18</v>
       </c>
       <c r="C301" t="n">
         <v>378.2</v>
@@ -8406,7 +8406,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>368.28</v>
+        <v>368.75</v>
       </c>
       <c r="C302" t="n">
         <v>371.95</v>
@@ -8433,7 +8433,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>365.33</v>
+        <v>365.16</v>
       </c>
       <c r="C303" t="n">
         <v>377.67</v>
@@ -8460,7 +8460,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>364.74</v>
+        <v>365.04</v>
       </c>
       <c r="C304" t="n">
         <v>372.86</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>365.67</v>
+        <v>365.27</v>
       </c>
       <c r="C305" t="n">
         <v>377.95</v>
@@ -8514,7 +8514,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>364.26</v>
+        <v>363.91</v>
       </c>
       <c r="C306" t="n">
         <v>371.23</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>375.1</v>
+        <v>375.62</v>
       </c>
       <c r="C307" t="n">
         <v>390.31</v>
@@ -8568,7 +8568,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>359.07</v>
+        <v>359.03</v>
       </c>
       <c r="C308" t="n">
         <v>366.01</v>
@@ -8595,7 +8595,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>357.57</v>
+        <v>357.87</v>
       </c>
       <c r="C309" t="n">
         <v>355.56</v>
@@ -8622,7 +8622,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>356.87</v>
+        <v>357.52</v>
       </c>
       <c r="C310" t="n">
         <v>371.75</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>357.53</v>
+        <v>356.95</v>
       </c>
       <c r="C311" t="n">
         <v>358.93</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>366.94</v>
+        <v>366.77</v>
       </c>
       <c r="C312" t="n">
         <v>364.46</v>
@@ -8701,7 +8701,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>363.36</v>
+        <v>363.56</v>
       </c>
       <c r="C313" t="n">
         <v>361.54</v>
@@ -8728,7 +8728,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>353.51</v>
+        <v>352.99</v>
       </c>
       <c r="C314" t="n">
         <v>357.52</v>
@@ -8755,7 +8755,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>363.26</v>
+        <v>362.69</v>
       </c>
       <c r="C315" t="n">
         <v>360.86</v>
@@ -8782,7 +8782,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>351.61</v>
+        <v>351.9</v>
       </c>
       <c r="C316" t="n">
         <v>353.79</v>
@@ -12334,7 +12334,7 @@
         <v>0.0985</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1383550764059362</v>
+        <v>0.1368972953680955</v>
       </c>
       <c r="J2" t="n">
         <v>315</v>
@@ -12343,19 +12343,19 @@
         <v>297</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01739154699543122</v>
+        <v>0.01684474754918908</v>
       </c>
       <c r="M2" t="n">
-        <v>5.737178317820596</v>
+        <v>5.765134541268812</v>
       </c>
       <c r="N2" t="n">
-        <v>57.5252470352228</v>
+        <v>58.17995047495075</v>
       </c>
       <c r="O2" t="n">
-        <v>7.5845400015573</v>
+        <v>7.627578283764169</v>
       </c>
       <c r="P2" t="n">
-        <v>360.5977676766694</v>
+        <v>360.6506970146262</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-36.61353150477472,175.56494402645433</t>
+          <t>-36.61353452602877,175.56493846633833</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -12795,7 +12795,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-36.61359067095552,175.56483514076868</t>
+          <t>-36.613588102893445,175.5648398668743</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -12832,7 +12832,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-36.61357551435132,175.56486303405413</t>
+          <t>-36.61357183849622,175.56486979886918</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -12869,7 +12869,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-36.613519470110305,175.56496617424534</t>
+          <t>-36.61352108144636,175.5649632088511</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -12906,7 +12906,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-36.61353190760861,175.56494328510556</t>
+          <t>-36.613534777799934,175.5649380029953</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -12968,7 +12968,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-36.61359756947434,175.56482244515004</t>
+          <t>-36.61359253405926,175.56483171202518</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-36.61350275249474,175.56499694020278</t>
+          <t>-36.61350360851741,175.5649953648378</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -13042,7 +13042,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-36.613503507808865,175.56499555017487</t>
+          <t>-36.61350184611779,175.5649986082362</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -13079,7 +13079,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-36.613494947581316,175.56501130382284</t>
+          <t>-36.613496206438434,175.56500898711013</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -13116,7 +13116,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-36.61350043619803,175.56500120295482</t>
+          <t>-36.61350219859772,175.56499795955656</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -13153,7 +13153,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-36.61354464722807,175.56491983994647</t>
+          <t>-36.613539712514324,175.56492892147148</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -13182,7 +13182,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-36.61351765735718,175.56496951031366</t>
+          <t>-36.6135214339261,175.56496256017113</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -13219,7 +13219,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-36.613491473135454,175.56501769794954</t>
+          <t>-36.613488703649395,175.56502279471675</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -13256,7 +13256,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-36.61347520869618,175.56504762986813</t>
+          <t>-36.613476719325526,175.56504484981434</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -13293,7 +13293,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-36.61363478117066,175.56475396290443</t>
+          <t>-36.61363629179355,175.56475118283896</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -13318,7 +13318,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-36.61353865507558,175.5649308675124</t>
+          <t>-36.61353800047063,175.56493207220439</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -13355,7 +13355,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-36.61349686104411,175.56500778241949</t>
+          <t>-36.61349535041558,175.56501056247478</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -13392,7 +13392,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-36.6134695690128,175.56505800873475</t>
+          <t>-36.613471331413955,175.56505476533908</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -13421,7 +13421,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-36.613508492881664,175.56498637599</t>
+          <t>-36.613511413429045,175.56498100121445</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -13458,7 +13458,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-36.61347656826259,175.5650451278197</t>
+          <t>-36.61347757534877,175.56504327445043</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-36.61351347795379,175.56497720180394</t>
+          <t>-36.6135156935412,175.5649731243875</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -13532,7 +13532,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-36.61346478535212,175.56506681223647</t>
+          <t>-36.6134636272026,175.5650689436104</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -13569,7 +13569,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-36.6135252608489,175.56495551735932</t>
+          <t>-36.61352475730644,175.56495644404512</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -13606,7 +13606,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-36.613535885593,175.56493596428598</t>
+          <t>-36.613538252241774,175.5649316088613</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-36.613534576383,175.56493837366972</t>
+          <t>-36.61353291469331,175.56494143173356</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -13680,7 +13680,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-36.613608597030954,175.56480215068913</t>
+          <t>-36.61360456870015,175.56480956419153</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-36.613496156084146,175.56500907977863</t>
+          <t>-36.613493134826975,175.565014639889</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -13754,7 +13754,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-36.61349686104411,175.56500778241949</t>
+          <t>-36.61349892556966,175.5650039830104</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -13791,7 +13791,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-36.6136057268453,175.5648074328097</t>
+          <t>-36.61360612967839,175.5648066914594</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -13824,7 +13824,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-36.61352994379335,175.56494689918077</t>
+          <t>-36.61353024591878,175.5649463431692</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -13861,7 +13861,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-36.61363830595729,175.56474747608476</t>
+          <t>-36.613640320120936,175.56474376933036</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -13898,7 +13898,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-36.61354565431242,175.56491798657387</t>
+          <t>-36.61354399262323,175.56492104463865</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -13935,7 +13935,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-36.613581909331245,175.56485126512774</t>
+          <t>-36.61358377243543,175.56484783638504</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -13972,7 +13972,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-36.61349323553556,175.565014454552</t>
+          <t>-36.613491473135454,175.56501769794954</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -14009,7 +14009,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-36.613566400244174,175.5648798070875</t>
+          <t>-36.61356564493132,175.56488119711773</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -14046,7 +14046,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-36.61354122314105,175.56492614141294</t>
+          <t>-36.61354358978947,175.56492178598765</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -14108,7 +14108,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-36.61351952046456,175.56496608157676</t>
+          <t>-36.61352289419933,175.56495987278248</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -14145,7 +14145,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-36.61349424262131,175.56501260118193</t>
+          <t>-36.613491322072576,175.56501797595502</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -14182,7 +14182,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-36.61352893670859,175.56494875255257</t>
+          <t>-36.61352576439135,175.5649545906735</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-36.6135219374686,175.56496163348538</t>
+          <t>-36.61352032613259,175.56496459887967</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -14256,7 +14256,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-36.613603158784265,175.56481215891716</t>
+          <t>-36.613599331869445,175.56481920174343</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -14285,7 +14285,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-36.61354520112448,175.56491882059154</t>
+          <t>-36.61354238128818,175.56492401003464</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-36.61346639669053,175.56506384684653</t>
+          <t>-36.613468561926396,175.56505986210362</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -14359,7 +14359,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-36.6134723888546,175.56505281930166</t>
+          <t>-36.61346992149304,175.56505736005562</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -14421,7 +14421,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-36.61358417526876,175.56484709503525</t>
+          <t>-36.61358175826874,175.5648515431339</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -14454,7 +14454,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-36.61353840330446,175.56493133085547</t>
+          <t>-36.61353915861785,175.56492994082626</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -14520,7 +14520,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-36.61354938052432,175.56491112909487</t>
+          <t>-36.613546208208824,175.56491696721895</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -14590,7 +14590,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-36.61351131272051,175.56498118655156</t>
+          <t>-36.613512319805785,175.5649793331806</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -14627,7 +14627,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-36.613518261608235,175.56496839829092</t>
+          <t>-36.613520678612346,175.56496395019968</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -14664,7 +14664,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-36.61354600679195,175.56491733789346</t>
+          <t>-36.613542330933946,175.56492410270326</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -14701,7 +14701,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-36.61355456700782,175.5649015842243</t>
+          <t>-36.613556832946976,175.5648974141348</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -14738,7 +14738,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-36.613490012861,175.56502038533594</t>
+          <t>-36.61349162419832,175.56501741994404</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -14775,7 +14775,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-36.61348301361374,175.56503326625554</t>
+          <t>-36.61348502778574,175.56502955951635</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -14812,7 +14812,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-36.6135232970333,175.56495913143388</t>
+          <t>-36.61352027577834,175.56496469154823</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -14849,7 +14849,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-36.61350275249474,175.56499694020278</t>
+          <t>-36.6135061765853,175.5649906387427</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -14882,7 +14882,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-36.61351408220491,175.56497608978128</t>
+          <t>-36.61351554247842,175.56497340239318</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -14919,7 +14919,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-36.61351760700292,175.56496960298222</t>
+          <t>-36.61351871479652,175.56496756427381</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -14956,7 +14956,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-36.61349051640392,175.565019458651</t>
+          <t>-36.61348910648374,175.56502205336884</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -14993,7 +14993,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-36.61348996250672,175.56502047800444</t>
+          <t>-36.613486790186165,175.56502631611937</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -15030,7 +15030,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-36.61349157384403,175.56501751261254</t>
+          <t>-36.61348845187792,175.56502325805923</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -15051,7 +15051,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-36.6135528549648,175.5649047349584</t>
+          <t>-36.613555020195655,175.56490075020642</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -15088,7 +15088,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-36.61355204929747,175.56490621765678</t>
+          <t>-36.61355260319377,175.56490519830166</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -15125,7 +15125,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-36.61356101234553,175.56488972263574</t>
+          <t>-36.61356151588749,175.56488879594906</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -15162,7 +15162,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-36.613458390352164,175.56507858112653</t>
+          <t>-36.61345602369836,175.565082936542</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -15199,7 +15199,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-36.61352324667906,175.56495922410247</t>
+          <t>-36.61352173605161,175.5649620041597</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -15236,7 +15236,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-36.61353487850839,175.5649378176581</t>
+          <t>-36.61353311611025,175.5649410610592</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -15269,7 +15269,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-36.61354364014369,175.56492169331904</t>
+          <t>-36.61353961180588,175.56492910680873</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -15306,7 +15306,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-36.61353064875268,175.56494560182045</t>
+          <t>-36.613527426081355,175.56495153261022</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15343,7 +15343,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-36.61354217987129,175.56492438070913</t>
+          <t>-36.61353915861785,175.56492994082626</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15380,7 +15380,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-36.613481049795936,175.5650368803261</t>
+          <t>-36.613484675305656,175.5650302081957</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15417,7 +15417,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-36.61357017680817,175.56487285693606</t>
+          <t>-36.613573097350745,175.56486748215175</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -15454,7 +15454,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-36.61350164470069,175.56499897891032</t>
+          <t>-36.613497767421194,175.56500611438625</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15491,7 +15491,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-36.61348210723631,175.56503493428812</t>
+          <t>-36.613482963259436,175.565033358924</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -15528,7 +15528,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-36.61352677147622,175.5649527373018</t>
+          <t>-36.61352400199276,175.5649578340738</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -15602,7 +15602,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-36.61351050705229,175.5649826692483</t>
+          <t>-36.61351262193135,175.56497877716927</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -15639,7 +15639,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-36.61359641132893,175.56482457653144</t>
+          <t>-36.613594548225365,175.56482800527527</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-36.6135110609492,175.5649816498943</t>
+          <t>-36.61350693189934,175.56498924871468</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -15713,7 +15713,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-36.61349751564978,175.5650065777288</t>
+          <t>-36.61349842202686,175.56500490969557</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-36.61354671175098,175.5649160405326</t>
+          <t>-36.613550085483276,175.5649098317339</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -15787,7 +15787,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-36.61361373315213,175.56479269847247</t>
+          <t>-36.613614639526354,175.56479103043407</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -15824,7 +15824,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-36.61348618593461,175.5650274281412</t>
+          <t>-36.61348457459705,175.56503039353268</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -15861,7 +15861,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-36.61349202703264,175.56501667859604</t>
+          <t>-36.613489358255194,175.56502159002636</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -15898,7 +15898,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-36.61351891621352,175.56496719359956</t>
+          <t>-36.613522541719576,175.56496052146252</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -15931,7 +15931,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-36.613555725154505,175.56489945284525</t>
+          <t>-36.613557688968406,175.5648958387676</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -15968,7 +15968,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-36.61351488787305,175.56497460708442</t>
+          <t>-36.613511614846104,175.56498063054028</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -16005,7 +16005,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-36.61350904677859,175.56498535663604</t>
+          <t>-36.61351040634376,175.56498285458537</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -16042,7 +16042,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-36.61352893670859,175.56494875255257</t>
+          <t>-36.613531756545896,175.5649435631113</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -16079,7 +16079,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-36.613560105969974,175.56489139067176</t>
+          <t>-36.613556279050755,175.56489843349004</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -16116,7 +16116,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-36.613548172023194,175.56491335314217</t>
+          <t>-36.61355038760855,175.56490927572204</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -16153,7 +16153,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-36.61349358801557,175.56501380587247</t>
+          <t>-36.61349383978701,175.56501334252997</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -16190,7 +16190,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-36.61352173605161,175.5649620041597</t>
+          <t>-36.61352198782286,175.56496154081682</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -16215,7 +16215,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-36.61347430231855,175.56504929790037</t>
+          <t>-36.61347279168913,175.56505207795402</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -16252,7 +16252,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-36.613616754399516,175.5647871383444</t>
+          <t>-36.613615143067605,175.56479010374608</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -16289,7 +16289,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-36.61351670062632,175.56497127101633</t>
+          <t>-36.61352007436134,175.5649650622225</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -16326,7 +16326,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-36.613491523489735,175.56501760528104</t>
+          <t>-36.61348759585491,175.56502483342356</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -16363,7 +16363,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-36.613527979978016,175.56495051325575</t>
+          <t>-36.61353090052388,175.56494513847747</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-36.61351237016003,175.56497924051206</t>
+          <t>-36.61351594531248,175.56497266104472</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -16437,7 +16437,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-36.61345003153166,175.56509396408217</t>
+          <t>-36.61344640601857,175.56510063620644</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -16474,7 +16474,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-36.61352913812554,175.5649483818782</t>
+          <t>-36.61353205867132,175.56494300709977</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -16511,7 +16511,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-36.61352974237641,175.5649472698551</t>
+          <t>-36.613531253003536,175.5649444897973</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -16548,7 +16548,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-36.61352913812554,175.5649483818782</t>
+          <t>-36.61353064875268,175.56494560182045</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -16585,7 +16585,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-36.61358508164371,175.56484542699815</t>
+          <t>-36.61358140578955,175.56485219181494</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -16622,7 +16622,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-36.613477726411695,175.56504299644504</t>
+          <t>-36.613480344835665,175.5650381776847</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -16659,7 +16659,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-36.61347938810385,175.56503993838564</t>
+          <t>-36.613479539166775,175.56503966038022</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-36.61351357866231,175.56497701646683</t>
+          <t>-36.61351337724527,175.56497738714103</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -16733,7 +16733,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-36.61353321681871,175.564940875722</t>
+          <t>-36.613536892677615,175.5649341109138</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-36.6135667527235,175.56487915840674</t>
+          <t>-36.613569421495406,175.56487424696638</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-36.6135324615052,175.56494226575097</t>
+          <t>-36.613533468589885,175.56494041237897</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -16844,7 +16844,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-36.61348885471227,175.56502251671128</t>
+          <t>-36.61348684054047,175.56502622345087</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -16881,7 +16881,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-36.61361871821021,175.56478352426095</t>
+          <t>-36.61361559625472,175.56478926972687</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -16918,7 +16918,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-36.61361589837945,175.56478871371405</t>
+          <t>-36.61361227288245,175.5647953858675</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -16955,7 +16955,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-36.61350446454007,175.56499378947282</t>
+          <t>-36.61350386028878,175.56499490149517</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -16992,7 +16992,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-36.613584628456245,175.56484626101673</t>
+          <t>-36.61358085189371,175.56485321117083</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -17029,7 +17029,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-36.61350637800238,175.56499026806858</t>
+          <t>-36.61350839217312,175.5649865613271</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -17066,7 +17066,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-36.61353372036105,175.564939949036</t>
+          <t>-36.61353679196915,175.564934296251</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -17103,7 +17103,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-36.613507536150564,175.56498813669225</t>
+          <t>-36.613503507808865,175.56499555017487</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -17140,7 +17140,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-36.613518966567796,175.564967100931</t>
+          <t>-36.61352113180061,175.56496311618255</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -17177,7 +17177,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-36.613505521979775,175.56499184343366</t>
+          <t>-36.613504665957144,175.56499341879868</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -17214,7 +17214,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-36.61350179576351,175.56499870090474</t>
+          <t>-36.61350018442664,175.56500166629746</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -17251,7 +17251,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-36.61351010421818,175.56498341059665</t>
+          <t>-36.61351186661742,175.56498016719752</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -17288,7 +17288,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-36.61345219676847,175.56508997934097</t>
+          <t>-36.61345003153166,175.56509396408217</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -17325,7 +17325,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-36.61353648984378,175.56493485226267</t>
+          <t>-36.61353281398485,175.5649416170708</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -17362,7 +17362,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-36.613464684643475,175.56506699757335</t>
+          <t>-36.61346403003722,175.56506820226295</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -17399,7 +17399,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-36.61349922769534,175.56500342699928</t>
+          <t>-36.61349932840388,175.56500324166225</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -17436,7 +17436,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-36.61351005386392,175.5649835032652</t>
+          <t>-36.613512470868564,175.56497905517494</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -17473,7 +17473,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-36.613497616358345,175.56500639239178</t>
+          <t>-36.613495199352734,175.5650108404803</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -17510,7 +17510,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-36.613487444792014,175.565025111429</t>
+          <t>-36.613490617112504,175.565019273314</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -17547,7 +17547,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-36.61355436559099,175.56490195489891</t>
+          <t>-36.61355673223857,175.56489759947212</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -17584,7 +17584,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-36.61353291469331,175.56494143173356</t>
+          <t>-36.61353417354915,175.56493911501855</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -17621,7 +17621,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-36.613494997935604,175.56501121115434</t>
+          <t>-36.61349731423265,175.56500694840287</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -17658,7 +17658,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-36.61358382278959,175.5648477437163</t>
+          <t>-36.613579794456115,175.56485515721386</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -17695,7 +17695,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-36.613484675305656,175.5650302081957</t>
+          <t>-36.613486689477575,175.56502650145632</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -17761,7 +17761,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-36.61345607405269,175.5650828438736</t>
+          <t>-36.61345446271385,175.5650858092627</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -17798,7 +17798,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-36.61354797060635,175.56491372381674</t>
+          <t>-36.613548020960565,175.5649136311481</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -17835,7 +17835,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-36.61351045669803,175.56498276191684</t>
+          <t>-36.61351080917789,175.56498211323702</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -17872,7 +17872,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-36.61351498858157,175.5649744217473</t>
+          <t>-36.61351206803446,175.56497979652335</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -17909,7 +17909,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-36.61352203817711,175.56496144814827</t>
+          <t>-36.61352113180061,175.56496311618255</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -17946,7 +17946,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-36.61360325949255,175.56481197357962</t>
+          <t>-36.61360487082497,175.56480900817886</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -17983,7 +17983,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-36.61352888635434,175.56494884522115</t>
+          <t>-36.61352898706282,175.56494865988398</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -18020,7 +18020,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-36.61352249136533,175.5649606141311</t>
+          <t>-36.61351836231673,175.56496821295377</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -18057,7 +18057,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-36.61353326717295,175.56494078305337</t>
+          <t>-36.6135355331134,175.56493661296622</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -18094,7 +18094,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-36.613489559672374,175.5650212193524</t>
+          <t>-36.61348996250672,175.56502047800444</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -18131,7 +18131,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-36.6134988248611,175.56500416834743</t>
+          <t>-36.613498673798254,175.565004446353</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -18168,7 +18168,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-36.61348673983187,175.56502640878787</t>
+          <t>-36.61349051640392,175.565019458651</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-36.613517405585895,175.56496997365647</t>
+          <t>-36.6135204268411,175.56496441354255</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -18242,7 +18242,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-36.61351649920929,175.5649716416906</t>
+          <t>-36.61351297441118,175.56497812848943</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -18275,7 +18275,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-36.61353820188754,175.5649317015299</t>
+          <t>-36.613540064993906,175.56492827279115</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -18312,7 +18312,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-36.61348900577515,175.5650222387058</t>
+          <t>-36.61348966038095,175.5650210340154</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -18349,7 +18349,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-36.613527979978016,175.56495051325575</t>
+          <t>-36.61352536155739,175.56495533202218</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -18386,7 +18386,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-36.613538957200944,175.56493031150072</t>
+          <t>-36.61354197845439,175.56492475138361</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -18423,7 +18423,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-36.613517254523124,175.56497025166215</t>
+          <t>-36.61351936940181,175.56496635958246</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -18460,7 +18460,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-36.613487948334964,175.56502418474415</t>
+          <t>-36.61348719302053,175.56502557477145</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -18497,7 +18497,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-36.61350416241442,175.564994345484</t>
+          <t>-36.61350114115792,175.56499990559553</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -18534,7 +18534,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-36.613537043740294,175.56493383290797</t>
+          <t>-36.61353880613828,175.56493058950656</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -18571,7 +18571,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-36.6135110609492,175.5649816498943</t>
+          <t>-36.613506680128,175.56498971205738</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-36.61349912698676,175.5650036123363</t>
+          <t>-36.613494997935604,175.56501121115434</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-36.61354686281362,175.5649157625267</t>
+          <t>-36.61354862521112,175.56491251912448</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -18682,7 +18682,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-36.613490617112504,175.565019273314</t>
+          <t>-36.613491473135454,175.56501769794954</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -18719,7 +18719,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-36.613489408609496,175.56502149735786</t>
+          <t>-36.61348880435798,175.56502260937978</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -18756,7 +18756,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-36.613507989338984,175.5649873026754</t>
+          <t>-36.61351101059495,175.56498174256285</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -18793,7 +18793,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-36.61351785877421,175.5649691396394</t>
+          <t>-36.61351383043361,175.56497655312407</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -18830,7 +18830,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-36.61348261077932,175.56503400760337</t>
+          <t>-36.61348482636855,175.56502993019026</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -18867,7 +18867,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-36.613480798024405,175.56503734366845</t>
+          <t>-36.61348381928256,175.5650317835599</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-36.613544143685886,175.56492076663278</t>
+          <t>-36.61354217987129,175.56492438070913</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -18941,7 +18941,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-36.61365180085162,175.56472264082657</t>
+          <t>-36.613654469617465,175.56471772937522</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -18978,7 +18978,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-36.61348437317986,175.5650307642066</t>
+          <t>-36.61348235900782,175.56503447094576</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -19036,7 +19036,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-36.61352536155739,175.56495533202218</t>
+          <t>-36.61352072896659,175.56496385753113</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -19073,7 +19073,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-36.613552552839565,175.5649052909703</t>
+          <t>-36.613554768424635,175.5649012135497</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -19110,7 +19110,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-36.613526721121964,175.56495282997042</t>
+          <t>-36.613525714037095,175.56495468334208</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -19147,7 +19147,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-36.613522541719576,175.56496052146252</t>
+          <t>-36.61352455588946,175.56495681471944</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-36.61358880785168,175.56483856951203</t>
+          <t>-36.613591577330325,175.56483347273132</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -19221,7 +19221,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-36.61354439545699,175.56492030328963</t>
+          <t>-36.613542884830395,175.56492308334842</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -19258,7 +19258,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-36.61352933954249,175.56494801120385</t>
+          <t>-36.613527426081355,175.56495153261022</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -19295,7 +19295,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-36.61351176590889,175.56498035253463</t>
+          <t>-36.61351508929008,175.5649742364102</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -19332,7 +19332,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-36.61352324667906,175.56495922410247</t>
+          <t>-36.613520175069844,175.5649648768854</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -19369,7 +19369,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-36.61346302295067,175.56507005563157</t>
+          <t>-36.61346267047037,175.56507070431056</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -19435,7 +19435,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-36.61346992149304,175.56505736005562</t>
+          <t>-36.61347248956323,175.56505263396474</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -19472,7 +19472,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-36.613551394692756,175.56490742234917</t>
+          <t>-36.61355406346576,175.5649025109108</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -19509,7 +19509,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-36.613466295981866,175.56506403218341</t>
+          <t>-36.61346543995835,175.56506560754684</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -19546,7 +19546,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-36.613507183670684,175.564988785372</t>
+          <t>-36.61350854323593,175.56498628332147</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -19583,7 +19583,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-36.61352138357186,175.5649626528397</t>
+          <t>-36.61352002400708,175.5649651548911</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -19620,7 +19620,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-36.61350038584375,175.56500129562338</t>
+          <t>-36.61349726387837,175.5650070410714</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -19657,7 +19657,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-36.61351941975606,175.5649662669139</t>
+          <t>-36.613516096375236,175.56497238303905</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -19694,7 +19694,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-36.61355184788064,175.56490658833135</t>
+          <t>-36.61355446629941,175.5649017695616</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -19731,7 +19731,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-36.61353377071528,175.56493985636735</t>
+          <t>-36.6135355331134,175.56493661296622</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -19805,7 +19805,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-36.61344187412672,175.5651089763609</t>
+          <t>-36.61344116916571,175.56511027371818</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -19842,7 +19842,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-36.613471482476896,175.56505448733375</t>
+          <t>-36.61346926688688,175.5650585647454</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -19908,7 +19908,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-36.6134737484211,175.5650503172534</t>
+          <t>-36.61347661861689,175.56504503515126</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -19941,7 +19941,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-36.61342324300998,175.56514326365212</t>
+          <t>-36.61342213521356,175.56514530235538</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -19978,7 +19978,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-36.61348689089477,175.5650261307824</t>
+          <t>-36.61348502778574,175.56502955951635</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -20024,7 +20024,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-36.61344343511174,175.56510610364114</t>
+          <t>-36.613440564913404,175.56511138573867</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -20061,7 +20061,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-36.61347329523226,175.5650511512695</t>
+          <t>-36.61347233850029,175.56505291197007</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -20098,7 +20098,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-36.61351347795379,175.56497720180394</t>
+          <t>-36.61351055740655,175.56498257657975</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -20135,7 +20135,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-36.61347359735816,175.56505059525875</t>
+          <t>-36.613475259050496,175.5650475371997</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -20172,7 +20172,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-36.61353915861785,175.56492994082626</t>
+          <t>-36.61353623807262,175.5649353156057</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -20201,7 +20201,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-36.61350315532894,175.56499619885457</t>
+          <t>-36.6135061765853,175.5649906387427</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -20238,7 +20238,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-36.61351383043361,175.56497655312407</t>
+          <t>-36.613516096375236,175.56497238303905</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -20275,7 +20275,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-36.613426415335915,175.56513742554694</t>
+          <t>-36.6134245522239,175.56514085427543</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -20341,7 +20341,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-36.6134720867287,175.56505337531235</t>
+          <t>-36.613470425036226,175.56505643337118</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -20378,7 +20378,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-36.613517556648674,175.5649696956508</t>
+          <t>-36.613518060191204,175.56496876896517</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -20415,7 +20415,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-36.61350290355758,175.5649966621972</t>
+          <t>-36.613499529821006,175.5650028709882</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -20452,7 +20452,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-36.61353150477472,175.56494402645433</t>
+          <t>-36.61353326717295,175.56494078305337</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -20489,7 +20489,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-36.61343698975377,175.56511796519294</t>
+          <t>-36.6134343209724,175.5651228766161</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -20526,7 +20526,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-36.6134741009013,175.5650496685742</t>
+          <t>-36.61347097893373,175.56505541401822</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -20563,7 +20563,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-36.61343698975377,175.56511796519294</t>
+          <t>-36.613436335147036,175.56511916988165</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -20592,7 +20592,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-36.61352188711435,175.564961726154</t>
+          <t>-36.613523397741794,175.56495894609674</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -20658,7 +20658,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-36.61350386028878,175.56499490149517</t>
+          <t>-36.613507183670684,175.564988785372</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -20695,7 +20695,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-36.613480697315794,175.5650375290054</t>
+          <t>-36.613476266136715,175.56504568383048</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -20732,7 +20732,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-36.613447664877306,175.56509831949668</t>
+          <t>-36.61344665779032,175.5651001728645</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -20790,7 +20790,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-36.6135324615052,175.56494226575097</t>
+          <t>-36.613531555128965,175.5649439337857</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -20827,7 +20827,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-36.61354565431242,175.56491798657387</t>
+          <t>-36.6135477691895,175.5649140944913</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-36.613510960240674,175.56498183523138</t>
+          <t>-36.61350904677859,175.56498535663604</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -20901,7 +20901,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-36.61347118035099,175.56505504334444</t>
+          <t>-36.61347233850029,175.56505291197007</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -20938,7 +20938,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-36.613566047764834,175.56488045576828</t>
+          <t>-36.61356831370331,175.56487628567754</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -20975,7 +20975,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-36.613521534634614,175.56496237483398</t>
+          <t>-36.613517254523124,175.56497025166215</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -21012,7 +21012,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-36.61343583160338,175.5651200965653</t>
+          <t>-36.613435378414096,175.56512093058055</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -21049,7 +21049,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-36.613429587661585,175.5651315874413</t>
+          <t>-36.61342933588972,175.56513205078303</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -21086,7 +21086,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-36.61357737745582,175.564859605312</t>
+          <t>-36.61358065047701,175.56485358184568</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -21123,7 +21123,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-36.6135192686933,175.5649665449196</t>
+          <t>-36.6135208296751,175.56496367219398</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-36.6135047666657,175.56499323346165</t>
+          <t>-36.61350149363785,175.56499925691588</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -21197,7 +21197,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-36.613526721121964,175.56495282997042</t>
+          <t>-36.6135290877713,175.56494847454678</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -21234,7 +21234,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-36.61357823347677,175.56485802994396</t>
+          <t>-36.61358009658114,175.56485460120157</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-36.61353492886263,175.56493772498948</t>
+          <t>-36.61353563382187,175.56493642762902</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -21333,7 +21333,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-36.61352813104073,175.56495023525</t>
+          <t>-36.61352667076772,175.564952922639</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -21370,7 +21370,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-36.61354983371223,175.5649102950771</t>
+          <t>-36.613551596109595,175.5649070516746</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -21407,7 +21407,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-36.61353115229506,175.56494467513448</t>
+          <t>-36.61353190760861,175.56494328510556</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -21444,7 +21444,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-36.613518664442275,175.5649676569424</t>
+          <t>-36.6135214339261,175.56496256017113</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -21481,7 +21481,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-36.61348543062014,175.56502881816846</t>
+          <t>-36.61348502778574,175.56502955951635</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -21518,7 +21518,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-36.613468511572066,175.56505995477207</t>
+          <t>-36.613467353422664,175.5650620861462</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -21555,7 +21555,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-36.6136051729498,175.5648084521662</t>
+          <t>-36.61360799278137,175.56480326271455</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-36.613491422781166,175.56501779061801</t>
+          <t>-36.61348875400368,175.56502270204828</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -21629,7 +21629,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-36.61354565431242,175.56491798657387</t>
+          <t>-36.61354902804484,175.56491177777534</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-36.6135307998154,175.56494532381467</t>
+          <t>-36.61352938989673,175.56494791853524</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -21703,7 +21703,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-36.61351383043361,175.56497655312407</t>
+          <t>-36.61351488787305,175.56497460708442</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -21757,7 +21757,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-36.61357687391406,175.56486053199907</t>
+          <t>-36.61357501080953,175.56486396074115</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -21794,7 +21794,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-36.61352450553522,175.56495690738802</t>
+          <t>-36.613526922538945,175.56495245929608</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -21831,7 +21831,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-36.61358724687271,175.5648414422428</t>
+          <t>-36.61358931139328,175.56483764282464</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -21868,7 +21868,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-36.61347727322293,175.56504383046124</t>
+          <t>-36.61347601436517,175.56504614717278</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -21905,7 +21905,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-36.613586844039425,175.56484218359265</t>
+          <t>-36.61358880785168,175.56483856951203</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -21942,7 +21942,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-36.61357365124672,175.5648664627961</t>
+          <t>-36.61356876689097,175.56487545165933</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -21979,7 +21979,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-36.61351800983695,175.5649688616337</t>
+          <t>-36.613520376486846,175.5649645062111</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -22053,7 +22053,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>-36.61351131272051,175.56498118655156</t>
+          <t>-36.61351146378331,175.56498090854592</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -22090,7 +22090,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-36.61351136307478,175.56498109388303</t>
+          <t>-36.61350995315539,175.56498368860227</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -22127,7 +22127,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-36.61352213888559,175.5649612628111</t>
+          <t>-36.613520376486846,175.5649645062111</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -22164,7 +22164,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-36.61351846302525,175.56496802761666</t>
+          <t>-36.61352047719536,175.56496432087397</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-36.61350300426612,175.56499647686013</t>
+          <t>-36.61350426312296,175.56499416014694</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -22238,7 +22238,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-36.613536892677615,175.5649341109138</t>
+          <t>-36.61353513027955,175.56493735431508</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -22259,7 +22259,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-36.61355174717221,175.56490677366867</t>
+          <t>-36.613548524502704,175.56491270446173</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -22329,7 +22329,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-36.6135761689556,175.56486182936095</t>
+          <t>-36.613578787372674,175.5648570105881</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -22362,7 +22362,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-36.613502702140465,175.5649970328713</t>
+          <t>-36.61350129222075,175.56499962758997</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -22399,7 +22399,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-36.61354192810017,175.56492484405223</t>
+          <t>-36.61354459687385,175.5649199326151</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -22436,7 +22436,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>-36.613471683894176,175.56505411665995</t>
+          <t>-36.613471129996675,175.5650551360129</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -22473,7 +22473,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-36.61351921833904,175.56496663758818</t>
+          <t>-36.61351911763054,175.5649668229253</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -22510,7 +22510,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-36.613497817775475,175.56500602171775</t>
+          <t>-36.613500486552304,175.56500111028632</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -22547,7 +22547,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-36.61350748579629,175.56498822936078</t>
+          <t>-36.61350345745459,175.5649956428434</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>-36.61351649920929,175.5649716416906</t>
+          <t>-36.6135192686933,175.5649665449196</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -22646,7 +22646,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-36.61348961002667,175.5650211266839</t>
+          <t>-36.61348699160335,175.56502594544543</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -22683,7 +22683,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-36.61344645637291,175.56510054353805</t>
+          <t>-36.61344363652917,175.5651057329676</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -22745,7 +22745,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-36.61353372036105,175.564939949036</t>
+          <t>-36.61353100123235,175.5649449531403</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -22782,7 +22782,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-36.613510708469356,175.5649822985741</t>
+          <t>-36.61351297441118,175.56497812848943</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -22819,7 +22819,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>-36.61352279349083,175.56496005811965</t>
+          <t>-36.61352118215486,175.564963023514</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-36.61351700275186,175.56497071500496</t>
+          <t>-36.613512823348394,175.5649784064951</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -22885,7 +22885,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>-36.61355426488258,175.56490214023623</t>
+          <t>-36.61354938052432,175.56491112909487</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -22922,7 +22922,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-36.61354212951706,175.56492447337774</t>
+          <t>-36.61354389191479,175.5649212299759</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -22959,7 +22959,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-36.61351448503898,175.56497534843288</t>
+          <t>-36.61351146378331,175.56498090854592</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -22996,7 +22996,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-36.6135185133795,175.56496793494807</t>
+          <t>-36.613521031092105,175.5649633015197</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -23033,7 +23033,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-36.613501543992136,175.56499916424738</t>
+          <t>-36.61350013407236,175.56500175896596</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -23070,7 +23070,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>-36.613471734248485,175.5650540239915</t>
+          <t>-36.613470626453505,175.56505606269738</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -23103,7 +23103,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-36.61354283447616,175.56492317601703</t>
+          <t>-36.61354147491216,175.56492567806984</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -23140,7 +23140,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>-36.613494947581316,175.56501130382284</t>
+          <t>-36.613497717066906,175.56500620705478</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -23177,7 +23177,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-36.61348804904357,175.56502399940715</t>
+          <t>-36.61348477601426,175.56503002285876</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -23214,7 +23214,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-36.613511916971675,175.564980074529</t>
+          <t>-36.61351393114212,175.56497636778695</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -23251,7 +23251,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-36.61351015457245,175.5649833179281</t>
+          <t>-36.613509550321254,175.5649844299506</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -23288,7 +23288,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-36.6135595017196,175.56489250269573</t>
+          <t>-36.613558595344,175.56489417073166</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -23325,7 +23325,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-36.61349842202686,175.56500490969557</t>
+          <t>-36.61350159434642,175.56499907157882</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -23362,7 +23362,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>-36.613516348146526,175.56497191969623</t>
+          <t>-36.61351800983695,175.5649688616337</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -23399,7 +23399,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>-36.61352239065685,175.56496079946822</t>
+          <t>-36.61352455588946,175.56495681471944</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -23436,7 +23436,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>-36.613512521222816,175.5649789625064</t>
+          <t>-36.61350869429872,175.56498600531583</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -23473,7 +23473,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>-36.613504665957144,175.56499341879868</t>
+          <t>-36.61350728437923,175.56498860003492</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -23510,7 +23510,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>-36.613491674552606,175.5650173272755</t>
+          <t>-36.613489307900906,175.56502168269483</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -23547,7 +23547,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>-36.61350652906518,175.56498999006297</t>
+          <t>-36.613507385087765,175.56498841469784</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -23584,7 +23584,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-36.61350949996699,175.56498452261917</t>
+          <t>-36.613507989338984,175.5649873026754</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -23621,7 +23621,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>-36.61350481701998,175.5649931407931</t>
+          <t>-36.6135068311908,175.56498943405174</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -23658,7 +23658,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>-36.613511916971675,175.564980074529</t>
+          <t>-36.613513679370826,175.56497683112974</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -23695,7 +23695,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>-36.61345733291111,175.56508052716325</t>
+          <t>-36.61345471448553,175.56508534592066</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -23732,7 +23732,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>-36.61353805082486,175.56493197953577</t>
+          <t>-36.613538252241774,175.5649316088613</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -23769,7 +23769,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>-36.61354560395821,175.56491807924252</t>
+          <t>-36.613544093331654,175.5649208593014</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -23806,7 +23806,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>-36.613549128753256,175.56491159243808</t>
+          <t>-36.613545855729306,175.56491761589936</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -23839,7 +23839,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-36.61354580537508,175.564917708568</t>
+          <t>-36.613548725919564,175.5649123337872</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>-36.61349842202686,175.56500490969557</t>
+          <t>-36.613499278049616,175.56500333433078</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -23913,7 +23913,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>-36.613516448855044,175.56497173435912</t>
+          <t>-36.61351544176989,175.5649735877303</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -23950,7 +23950,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>-36.613566047764834,175.56488045576828</t>
+          <t>-36.613568666182616,175.56487563699673</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -23987,7 +23987,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>-36.61351695239761,175.56497080767352</t>
+          <t>-36.613519822590085,175.56496552556536</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -24024,7 +24024,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>-36.613575615059666,175.56486284871673</t>
+          <t>-36.613574154788516,175.5648655361091</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
